--- a/sriramModel-nelson-atypical-patientID_49-sims-gr-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_49-sims-gr-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.019057064121187</v>
+        <v>2.009093854916264</v>
       </c>
       <c r="C2">
-        <v>2.016434912461389</v>
+        <v>2.002428303588201</v>
       </c>
       <c r="D2">
-        <v>2.004965670309672</v>
+        <v>2.005936957773458</v>
       </c>
       <c r="E2">
-        <v>2.030389807219458</v>
+        <v>2.007331422799746</v>
       </c>
       <c r="F2">
-        <v>2.014537921287743</v>
+        <v>2.000106548740297</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.038173956104483</v>
+        <v>2.018328428595797</v>
       </c>
       <c r="C3">
-        <v>2.032930311953924</v>
+        <v>2.004945977810619</v>
       </c>
       <c r="D3">
-        <v>2.010006501928304</v>
+        <v>2.011927596405026</v>
       </c>
       <c r="E3">
-        <v>2.060789532527577</v>
+        <v>2.014789373203426</v>
       </c>
       <c r="F3">
-        <v>2.029103870687996</v>
+        <v>2.000220654499258</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.057342266156292</v>
+        <v>2.027707257471406</v>
       </c>
       <c r="C4">
-        <v>2.049487077039132</v>
+        <v>2.007547919029638</v>
       </c>
       <c r="D4">
-        <v>2.015121097301156</v>
+        <v>2.01797058696087</v>
       </c>
       <c r="E4">
-        <v>2.091191325240126</v>
+        <v>2.022376695804835</v>
       </c>
       <c r="F4">
-        <v>2.043691849357517</v>
+        <v>2.000342780320572</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.076554600346666</v>
+        <v>2.037234092138698</v>
       </c>
       <c r="C5">
-        <v>2.066106444587137</v>
+        <v>2.010229611703014</v>
       </c>
       <c r="D5">
-        <v>2.020308316025225</v>
+        <v>2.024064879510822</v>
       </c>
       <c r="E5">
-        <v>2.121588080451767</v>
+        <v>2.030096472180616</v>
       </c>
       <c r="F5">
-        <v>2.058296697914099</v>
+        <v>2.000473421022511</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.095804542467832</v>
+        <v>2.046912941630068</v>
       </c>
       <c r="C6">
-        <v>2.08279002867517</v>
+        <v>2.012987082241678</v>
       </c>
       <c r="D6">
-        <v>2.0255672656532</v>
+        <v>2.0302096851825</v>
       </c>
       <c r="E6">
-        <v>2.151973419827722</v>
+        <v>2.037952044641095</v>
       </c>
       <c r="F6">
-        <v>2.072914039715941</v>
+        <v>2.000613108683066</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.115086603021173</v>
+        <v>2.056748081885355</v>
       </c>
       <c r="C7">
-        <v>2.099539835007576</v>
+        <v>2.015816881013836</v>
       </c>
       <c r="D7">
-        <v>2.03089727965316</v>
+        <v>2.036404468725871</v>
       </c>
       <c r="E7">
-        <v>2.182341701154014</v>
+        <v>2.045947018197544</v>
       </c>
       <c r="F7">
-        <v>2.087540219923013</v>
+        <v>2.000762412477646</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.134396179173512</v>
+        <v>2.066744053685557</v>
       </c>
       <c r="C8">
-        <v>2.116358231774447</v>
+        <v>2.018716079646984</v>
       </c>
       <c r="D8">
-        <v>2.03629790208763</v>
+        <v>2.042648953138034</v>
       </c>
       <c r="E8">
-        <v>2.212687978940778</v>
+        <v>2.054085277971002</v>
       </c>
       <c r="F8">
-        <v>2.102172259692914</v>
+        <v>2.000921944048142</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.153729522677148</v>
+        <v>2.076905685601789</v>
       </c>
       <c r="C9">
-        <v>2.133247962455685</v>
+        <v>2.021682229562104</v>
       </c>
       <c r="D9">
-        <v>2.041768876226223</v>
+        <v>2.048943100532048</v>
       </c>
       <c r="E9">
-        <v>2.243007959918378</v>
+        <v>2.062370990657493</v>
       </c>
       <c r="F9">
-        <v>2.116807809916943</v>
+        <v>2.001092359573591</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.173083702922612</v>
+        <v>2.087238099692141</v>
       </c>
       <c r="C10">
-        <v>2.150212138131637</v>
+        <v>2.024713346864224</v>
       </c>
       <c r="D10">
-        <v>2.047310132985001</v>
+        <v>2.055287106890555</v>
       </c>
       <c r="E10">
-        <v>2.273297994794389</v>
+        <v>2.070808611853451</v>
       </c>
       <c r="F10">
-        <v>2.131445111372786</v>
+        <v>2.001274361839144</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.192456575619197</v>
+        <v>2.097746717324961</v>
       </c>
       <c r="C11">
-        <v>2.167254254898197</v>
+        <v>2.027807899972211</v>
       </c>
       <c r="D11">
-        <v>2.052921779206684</v>
+        <v>2.061681399132811</v>
       </c>
       <c r="E11">
-        <v>2.303555069711744</v>
+        <v>2.079402898703405</v>
       </c>
       <c r="F11">
-        <v>2.146082967726297</v>
+        <v>2.001468703688399</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.211846753691387</v>
+        <v>2.108437272192169</v>
       </c>
       <c r="C12">
-        <v>2.184378178909328</v>
+        <v>2.030964795087657</v>
       </c>
       <c r="D12">
-        <v>2.058604089564667</v>
+        <v>2.06812663115327</v>
       </c>
       <c r="E12">
-        <v>2.333776791607328</v>
+        <v>2.088158920214051</v>
       </c>
       <c r="F12">
-        <v>2.160720681033827</v>
+        <v>2.001676191541173</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.231253582275365</v>
+        <v>2.119315823009295</v>
       </c>
       <c r="C13">
-        <v>2.201588148086715</v>
+        <v>2.034183360189505</v>
       </c>
       <c r="D13">
-        <v>2.06435750051548</v>
+        <v>2.07462367928245</v>
       </c>
       <c r="E13">
-        <v>2.363961371138611</v>
+        <v>2.09708207014979</v>
       </c>
       <c r="F13">
-        <v>2.175358024166598</v>
+        <v>2.00189768874632</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.25067711248525</v>
+        <v>2.130388766205733</v>
       </c>
       <c r="C14">
-        <v>2.218888781037589</v>
+        <v>2.037463331960447</v>
       </c>
       <c r="D14">
-        <v>2.070182596993027</v>
+        <v>2.08117363920376</v>
       </c>
       <c r="E14">
-        <v>2.394107621896</v>
+        <v>2.106178081707568</v>
       </c>
       <c r="F14">
-        <v>2.189995221592903</v>
+        <v>2.002134119638575</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.270118076087919</v>
+        <v>2.141662852093381</v>
       </c>
       <c r="C15">
-        <v>2.236285078580849</v>
+        <v>2.040804845202971</v>
       </c>
       <c r="D15">
-        <v>2.07608010787883</v>
+        <v>2.087777823975856</v>
       </c>
       <c r="E15">
-        <v>2.424214933809464</v>
+        <v>2.115453042495853</v>
       </c>
       <c r="F15">
-        <v>2.204632913363196</v>
+        <v>2.002386474135907</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.289577865588926</v>
+        <v>2.153145201546867</v>
       </c>
       <c r="C16">
-        <v>2.253782436556474</v>
+        <v>2.044208423438186</v>
       </c>
       <c r="D16">
-        <v>2.082050899015205</v>
+        <v>2.094437762970226</v>
       </c>
       <c r="E16">
-        <v>2.454283305411938</v>
+        <v>2.124913410710845</v>
       </c>
       <c r="F16">
-        <v>2.219272123273065</v>
+        <v>2.002655812323977</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.30905851739264</v>
+        <v>2.164843322873117</v>
       </c>
       <c r="C17">
-        <v>2.271386651671969</v>
+        <v>2.047674969353818</v>
       </c>
       <c r="D17">
-        <v>2.08809596727506</v>
+        <v>2.101155201652674</v>
       </c>
       <c r="E17">
-        <v>2.484313292552597</v>
+        <v>2.134566034809805</v>
       </c>
       <c r="F17">
-        <v>2.233914233586381</v>
+        <v>2.002943269367548</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.328562695621558</v>
+        <v>2.176765129828871</v>
       </c>
       <c r="C18">
-        <v>2.289103930143319</v>
+        <v>2.051205762348627</v>
       </c>
       <c r="D18">
-        <v>2.094216439945282</v>
+        <v>2.107932101949957</v>
       </c>
       <c r="E18">
-        <v>2.514306025569868</v>
+        <v>2.144418171162297</v>
       </c>
       <c r="F18">
-        <v>2.248560963726898</v>
+        <v>2.003250061094355</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.34809367814502</v>
+        <v>2.188918961305281</v>
       </c>
       <c r="C19">
-        <v>2.306940901379908</v>
+        <v>2.054802450361578</v>
       </c>
       <c r="D19">
-        <v>2.100413570785369</v>
+        <v>2.114770644408932</v>
       </c>
       <c r="E19">
-        <v>2.544263196875114</v>
+        <v>2.154477508548678</v>
       </c>
       <c r="F19">
-        <v>2.263214348578444</v>
+        <v>2.003577491470129</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.367655342501862</v>
+        <v>2.201313602288047</v>
       </c>
       <c r="C20">
-        <v>2.324904629712063</v>
+        <v>2.058467045094265</v>
       </c>
       <c r="D20">
-        <v>2.106688737594045</v>
+        <v>2.121673228746837</v>
       </c>
       <c r="E20">
-        <v>2.574187074559172</v>
+        <v>2.164752170847344</v>
       </c>
       <c r="F20">
-        <v>2.277876718096242</v>
+        <v>2.003926953742971</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.387252154449555</v>
+        <v>2.213958315566068</v>
       </c>
       <c r="C21">
-        <v>2.343002627381134</v>
+        <v>2.062201922594058</v>
       </c>
       <c r="D21">
-        <v>2.113043440408173</v>
+        <v>2.128642479269571</v>
       </c>
       <c r="E21">
-        <v>2.604080501776776</v>
+        <v>2.175250775302168</v>
       </c>
       <c r="F21">
-        <v>2.292550680279009</v>
+        <v>2.004299941997447</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.40688916133102</v>
+        <v>2.226862838290872</v>
       </c>
       <c r="C22">
-        <v>2.361242871847002</v>
+        <v>2.066009817064461</v>
       </c>
       <c r="D22">
-        <v>2.119479301074856</v>
+        <v>2.135681248842082</v>
       </c>
       <c r="E22">
-        <v>2.633946896176288</v>
+        <v>2.185982430714034</v>
       </c>
       <c r="F22">
-        <v>2.307239109206868</v>
+        <v>2.004698057234436</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.426571988690214</v>
+        <v>2.240037432875097</v>
       </c>
       <c r="C23">
-        <v>2.379633824973604</v>
+        <v>2.069893828460577</v>
       </c>
       <c r="D23">
-        <v>2.125998065958565</v>
+        <v>2.142792623067848</v>
       </c>
       <c r="E23">
-        <v>2.663790255664572</v>
+        <v>2.196956788043567</v>
       </c>
       <c r="F23">
-        <v>2.321945119848615</v>
+        <v>2.005123011941769</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.446306833480047</v>
+        <v>2.253492891970879</v>
       </c>
       <c r="C24">
-        <v>2.398184451209766</v>
+        <v>2.07385742003556</v>
       </c>
       <c r="D24">
-        <v>2.132601599841238</v>
+        <v>2.149979930891148</v>
       </c>
       <c r="E24">
-        <v>2.693615161976116</v>
+        <v>2.208184062455349</v>
       </c>
       <c r="F24">
-        <v>2.336672080634657</v>
+        <v>2.005576648161544</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.466100464944755</v>
+        <v>2.267240604374734</v>
       </c>
       <c r="C25">
-        <v>2.416904240548118</v>
+        <v>2.077904429200426</v>
       </c>
       <c r="D25">
-        <v>2.13929189880436</v>
+        <v>2.157246749407522</v>
       </c>
       <c r="E25">
-        <v>2.723426789351527</v>
+        <v>2.21967506552785</v>
       </c>
       <c r="F25">
-        <v>2.35142356090342</v>
+        <v>2.006060938208535</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.485960224255822</v>
+        <v>2.281292557567917</v>
       </c>
       <c r="C26">
-        <v>2.435803233295405</v>
+        <v>2.082039072369764</v>
       </c>
       <c r="D26">
-        <v>2.14607108234549</v>
+        <v>2.164596915202172</v>
       </c>
       <c r="E26">
-        <v>2.753230915058082</v>
+        <v>2.231441240437702</v>
       </c>
       <c r="F26">
-        <v>2.366203371665242</v>
+        <v>2.006578000877552</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.50589402728498</v>
+        <v>2.295661378150065</v>
       </c>
       <c r="C27">
-        <v>2.454892045374121</v>
+        <v>2.086265951842988</v>
       </c>
       <c r="D27">
-        <v>2.152941400496169</v>
+        <v>2.172034536712516</v>
       </c>
       <c r="E27">
-        <v>2.783033930389096</v>
+        <v>2.243494703036732</v>
       </c>
       <c r="F27">
-        <v>2.381015533859607</v>
+        <v>2.007130110025432</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.525910367956727</v>
+        <v>2.310360354222804</v>
       </c>
       <c r="C28">
-        <v>2.474181895367223</v>
+        <v>2.090590069781123</v>
       </c>
       <c r="D28">
-        <v>2.159905250489456</v>
+        <v>2.179564003566877</v>
       </c>
       <c r="E28">
-        <v>2.812842856675644</v>
+        <v>2.255848275517769</v>
       </c>
       <c r="F28">
-        <v>2.395864291531597</v>
+        <v>2.007719705551874</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.546018329733373</v>
+        <v>2.325403474875046</v>
       </c>
       <c r="C29">
-        <v>2.493684638201315</v>
+        <v>2.095016842817491</v>
       </c>
       <c r="D29">
-        <v>2.166965156338367</v>
+        <v>2.187190004800617</v>
       </c>
       <c r="E29">
-        <v>2.842665360265944</v>
+        <v>2.268515540390132</v>
       </c>
       <c r="F29">
-        <v>2.410754097736914</v>
+        <v>2.008349410114944</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.566227595197093</v>
+        <v>2.340805468466874</v>
       </c>
       <c r="C30">
-        <v>2.513412797560625</v>
+        <v>2.099552114300264</v>
       </c>
       <c r="D30">
-        <v>2.174123814674541</v>
+        <v>2.194917546155666</v>
       </c>
       <c r="E30">
-        <v>2.87250977345186</v>
+        <v>2.281510883803877</v>
       </c>
       <c r="F30">
-        <v>2.425689619616846</v>
+        <v>2.009022040462585</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.58654845618669</v>
+        <v>2.356581837707898</v>
       </c>
       <c r="C31">
-        <v>2.533379598870618</v>
+        <v>2.104202179454534</v>
       </c>
       <c r="D31">
-        <v>2.181384058848029</v>
+        <v>2.202751963966068</v>
       </c>
       <c r="E31">
-        <v>2.902385103188833</v>
+        <v>2.29484954095939</v>
       </c>
       <c r="F31">
-        <v>2.440675738422842</v>
+        <v>2.009740627142687</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.606991833773689</v>
+        <v>2.372748904519953</v>
       </c>
       <c r="C32">
-        <v>2.553599011728029</v>
+        <v>2.108973808330472</v>
       </c>
       <c r="D32">
-        <v>2.188748912528721</v>
+        <v>2.210698953719695</v>
       </c>
       <c r="E32">
-        <v>2.932301076406442</v>
+        <v>2.308547657212299</v>
       </c>
       <c r="F32">
-        <v>2.455717560261432</v>
+        <v>2.010508433137963</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.627569294976472</v>
+        <v>2.389323844018546</v>
       </c>
       <c r="C33">
-        <v>2.574085789415897</v>
+        <v>2.113874267472382</v>
       </c>
       <c r="D33">
-        <v>2.196221559085699</v>
+        <v>2.218764590434203</v>
       </c>
       <c r="E33">
-        <v>2.962268123513601</v>
+        <v>2.322622336711491</v>
       </c>
       <c r="F33">
-        <v>2.470820419562632</v>
+        <v>2.011328968138169</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.648293071802694</v>
+        <v>2.406324725419173</v>
       </c>
       <c r="C34">
-        <v>2.594855509915887</v>
+        <v>2.118911358098678</v>
       </c>
       <c r="D34">
-        <v>2.203805387852139</v>
+        <v>2.22695535419204</v>
       </c>
       <c r="E34">
-        <v>2.992297465152781</v>
+        <v>2.337091701661679</v>
       </c>
       <c r="F34">
-        <v>2.485989896570977</v>
+        <v>2.012206018609207</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.66917608875083</v>
+        <v>2.423770550770644</v>
       </c>
       <c r="C35">
-        <v>2.61592462510803</v>
+        <v>2.124093451146617</v>
       </c>
       <c r="D35">
-        <v>2.211503981423303</v>
+        <v>2.235278167588072</v>
       </c>
       <c r="E35">
-        <v>3.02240107038827</v>
+        <v>2.351974958562346</v>
       </c>
       <c r="F35">
-        <v>2.501231828694091</v>
+        <v>2.013143663579722</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.690231990344017</v>
+        <v>2.441681295756292</v>
       </c>
       <c r="C36">
-        <v>2.637310508949615</v>
+        <v>2.129429521115647</v>
       </c>
       <c r="D36">
-        <v>2.21932114533841</v>
+        <v>2.243740422586176</v>
       </c>
       <c r="E36">
-        <v>3.052591769783707</v>
+        <v>2.367292454573181</v>
       </c>
       <c r="F36">
-        <v>2.516552324668285</v>
+        <v>2.014146304168208</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2.711475169454987</v>
+        <v>2.460077947681099</v>
       </c>
       <c r="C37">
-        <v>2.659031506199349</v>
+        <v>2.134929202498739</v>
       </c>
       <c r="D37">
-        <v>2.22726092216491</v>
+        <v>2.25235002351007</v>
       </c>
       <c r="E37">
-        <v>3.082883213526832</v>
+        <v>2.38306574991808</v>
       </c>
       <c r="F37">
-        <v>2.531957785003768</v>
+        <v>2.015218697405786</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.732920803356405</v>
+        <v>2.478982545754176</v>
       </c>
       <c r="C38">
-        <v>2.681106987346084</v>
+        <v>2.140602842557023</v>
       </c>
       <c r="D38">
-        <v>2.235327597828393</v>
+        <v>2.261115434668706</v>
       </c>
       <c r="E38">
-        <v>3.113289981074542</v>
+        <v>2.399317685035993</v>
       </c>
       <c r="F38">
-        <v>2.547454926398692</v>
+        <v>2.016365977111624</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2.754584892609984</v>
+        <v>2.49841820459084</v>
       </c>
       <c r="C39">
-        <v>2.703557404137588</v>
+        <v>2.14646155207749</v>
       </c>
       <c r="D39">
-        <v>2.243525748440279</v>
+        <v>2.270045717883412</v>
       </c>
       <c r="E39">
-        <v>3.143827563737218</v>
+        <v>2.416072444727494</v>
       </c>
       <c r="F39">
-        <v>2.56305080441551</v>
+        <v>2.017593705510476</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2.776484300549637</v>
+        <v>2.518409166718906</v>
       </c>
       <c r="C40">
-        <v>2.726404344263285</v>
+        <v>2.152517289755357</v>
       </c>
       <c r="D40">
-        <v>2.251860221330484</v>
+        <v>2.279150599639172</v>
       </c>
       <c r="E40">
-        <v>3.174512459371654</v>
+        <v>2.433355633578672</v>
       </c>
       <c r="F40">
-        <v>2.578752845335391</v>
+        <v>2.018907900832577</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2.798636797016922</v>
+        <v>2.53898080135128</v>
       </c>
       <c r="C41">
-        <v>2.749670588919013</v>
+        <v>2.158782938779667</v>
       </c>
       <c r="D41">
-        <v>2.260336213916752</v>
+        <v>2.288440533934253</v>
       </c>
       <c r="E41">
-        <v>3.205362177951134</v>
+        <v>2.451194339341523</v>
       </c>
       <c r="F41">
-        <v>2.594568882955255</v>
+        <v>2.020315087046115</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2.821061111070398</v>
+        <v>2.560159643296283</v>
       </c>
       <c r="C42">
-        <v>2.773380171503529</v>
+        <v>2.165272382946814</v>
       </c>
       <c r="D42">
-        <v>2.268959234660139</v>
+        <v>2.297926755417234</v>
       </c>
       <c r="E42">
-        <v>3.236395331564321</v>
+        <v>2.469617201195583</v>
       </c>
       <c r="F42">
-        <v>2.610507193227239</v>
+        <v>2.021822350756717</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2.843776982092845</v>
+        <v>2.581973409278965</v>
       </c>
       <c r="C43">
-        <v>2.797558432076842</v>
+        <v>2.172000631582084</v>
       </c>
       <c r="D43">
-        <v>2.277735207809181</v>
+        <v>2.307621382618915</v>
       </c>
       <c r="E43">
-        <v>3.267631655794903</v>
+        <v>2.48865446993609</v>
       </c>
       <c r="F43">
-        <v>2.626576538354844</v>
+        <v>2.023437378129288</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2.866805211849153</v>
+        <v>2.604450944306571</v>
       </c>
       <c r="C44">
-        <v>2.822232073238949</v>
+        <v>2.178983935724379</v>
       </c>
       <c r="D44">
-        <v>2.286670427938229</v>
+        <v>2.317537493289977</v>
       </c>
       <c r="E44">
-        <v>3.299092097415932</v>
+        <v>2.508338060576105</v>
       </c>
       <c r="F44">
-        <v>2.642786219586551</v>
+        <v>2.025168541978099</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2.890167731082537</v>
+        <v>2.627622343777517</v>
       </c>
       <c r="C45">
-        <v>2.847429210274117</v>
+        <v>2.186239899775701</v>
       </c>
       <c r="D45">
-        <v>2.295771661155942</v>
+        <v>2.327689221926793</v>
       </c>
       <c r="E45">
-        <v>3.3307988533836</v>
+        <v>2.528701607034951</v>
       </c>
       <c r="F45">
-        <v>2.65914612826017</v>
+        <v>2.027024954717329</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2.913887660371863</v>
+        <v>2.651518740450924</v>
       </c>
       <c r="C46">
-        <v>2.873179413282414</v>
+        <v>2.193787669897216</v>
       </c>
       <c r="D46">
-        <v>2.305046146575366</v>
+        <v>2.338091898321326</v>
       </c>
       <c r="E46">
-        <v>3.362775439968589</v>
+        <v>2.549780476195354</v>
       </c>
       <c r="F46">
-        <v>2.675666804970337</v>
+        <v>2.029016550707655</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2.937989373333751</v>
+        <v>2.676172384064291</v>
       </c>
       <c r="C47">
-        <v>2.899513750637108</v>
+        <v>2.201648107534369</v>
       </c>
       <c r="D47">
-        <v>2.314501644920987</v>
+        <v>2.34876214808023</v>
       </c>
       <c r="E47">
-        <v>3.395046778442535</v>
+        <v>2.571611802928929</v>
       </c>
       <c r="F47">
-        <v>2.692359515808178</v>
+        <v>2.031154194852429</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2.962498571005224</v>
+        <v>2.701616508027466</v>
       </c>
       <c r="C48">
-        <v>2.926464810622114</v>
+        <v>2.209843956983065</v>
       </c>
       <c r="D48">
-        <v>2.324146514642351</v>
+        <v>2.359718060836439</v>
       </c>
       <c r="E48">
-        <v>3.427639246821544</v>
+        <v>2.59423448109152</v>
       </c>
       <c r="F48">
-        <v>2.709236325075154</v>
+        <v>2.033449745927566</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2.987442351606075</v>
+        <v>2.727885247636297</v>
       </c>
       <c r="C49">
-        <v>2.95406670933689</v>
+        <v>2.218400132234172</v>
       </c>
       <c r="D49">
-        <v>2.33398970244503</v>
+        <v>2.370979374674353</v>
       </c>
       <c r="E49">
-        <v>3.460580751841579</v>
+        <v>2.61768910090086</v>
       </c>
       <c r="F49">
-        <v>2.726310174535581</v>
+        <v>2.03591621588873</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3.01284928095521</v>
+        <v>2.755013566873281</v>
       </c>
       <c r="C50">
-        <v>2.982355095900628</v>
+        <v>2.227343979882124</v>
       </c>
       <c r="D50">
-        <v>2.344040898257169</v>
+        <v>2.382567620537266</v>
       </c>
       <c r="E50">
-        <v>3.493900792842727</v>
+        <v>2.642017938317347</v>
       </c>
       <c r="F50">
-        <v>2.743594991779314</v>
+        <v>2.038567874015756</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3.038749468197667</v>
+        <v>2.783037030793254</v>
       </c>
       <c r="C51">
-        <v>3.011367128184361</v>
+        <v>2.236705532665977</v>
       </c>
       <c r="D51">
-        <v>2.354310462806535</v>
+        <v>2.394506398407279</v>
       </c>
       <c r="E51">
-        <v>3.527630529366121</v>
+        <v>2.667264798528417</v>
       </c>
       <c r="F51">
-        <v>2.761105793833493</v>
+        <v>2.041420389625117</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3.065174636750359</v>
+        <v>2.811991644230097</v>
       </c>
       <c r="C52">
-        <v>3.041141392762996</v>
+        <v>2.246517951965345</v>
       </c>
       <c r="D52">
-        <v>2.36480962249192</v>
+        <v>2.406821629117844</v>
       </c>
       <c r="E52">
-        <v>3.561802844980711</v>
+        <v>2.693474838796509</v>
       </c>
       <c r="F52">
-        <v>2.778858782518638</v>
+        <v>2.044491048503674</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3.092158311291637</v>
+        <v>2.841913650514686</v>
       </c>
       <c r="C53">
-        <v>3.071717942607074</v>
+        <v>2.256817925111454</v>
       </c>
       <c r="D53">
-        <v>2.375550570819139</v>
+        <v>2.419541773821361</v>
       </c>
       <c r="E53">
-        <v>3.596452588738907</v>
+        <v>2.720694465956619</v>
       </c>
       <c r="F53">
-        <v>2.796871595021963</v>
+        <v>2.047798869156197</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>3.119737046562481</v>
+        <v>2.872839149937143</v>
       </c>
       <c r="C54">
-        <v>3.103138310762292</v>
+        <v>2.267646056944288</v>
       </c>
       <c r="D54">
-        <v>2.386546854568269</v>
+        <v>2.432698282087987</v>
       </c>
       <c r="E54">
-        <v>3.631618509001814</v>
+        <v>2.748970919296702</v>
       </c>
       <c r="F54">
-        <v>2.815163901820194</v>
+        <v>2.051364905073329</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3.14795165859555</v>
+        <v>2.904803909273468</v>
       </c>
       <c r="C55">
-        <v>3.135446239939402</v>
+        <v>2.279047548704952</v>
       </c>
       <c r="D55">
-        <v>2.397813851596768</v>
+        <v>2.44632589772362</v>
       </c>
       <c r="E55">
-        <v>3.667345094005982</v>
+        <v>2.778351968537882</v>
       </c>
       <c r="F55">
-        <v>2.833758141647748</v>
+        <v>2.055212463790734</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>3.176847228708445</v>
+        <v>2.937842906485253</v>
       </c>
       <c r="C56">
-        <v>3.168687108280272</v>
+        <v>2.291072790596023</v>
       </c>
       <c r="D56">
-        <v>2.409368826945113</v>
+        <v>2.460463100175346</v>
       </c>
       <c r="E56">
-        <v>3.703682527316411</v>
+        <v>2.808885616382711</v>
       </c>
       <c r="F56">
-        <v>2.852679633201904</v>
+        <v>2.059367360114047</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3.206473008581375</v>
+        <v>2.971989915658137</v>
       </c>
       <c r="C57">
-        <v>3.202907668282917</v>
+        <v>2.303777934864304</v>
       </c>
       <c r="D57">
-        <v>2.421230990639208</v>
+        <v>2.475152712281341</v>
       </c>
       <c r="E57">
-        <v>3.740686467286517</v>
+        <v>2.840619360458657</v>
       </c>
       <c r="F57">
-        <v>2.871956680477173</v>
+        <v>2.063858366540207</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3.236882319196944</v>
+        <v>3.007277185054586</v>
       </c>
       <c r="C58">
-        <v>3.238155607393413</v>
+        <v>2.317225965571245</v>
       </c>
       <c r="D58">
-        <v>2.43342157373875</v>
+        <v>2.490442273708012</v>
       </c>
       <c r="E58">
-        <v>3.77841782981929</v>
+        <v>2.873599675473315</v>
       </c>
       <c r="F58">
-        <v>2.891620705614577</v>
+        <v>2.068717397145968</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>3.268132413124967</v>
+        <v>3.043734795413234</v>
       </c>
       <c r="C59">
-        <v>3.274479049409019</v>
+        <v>2.331487529563763</v>
       </c>
       <c r="D59">
-        <v>2.445963924862204</v>
+        <v>2.506384979266312</v>
       </c>
       <c r="E59">
-        <v>3.816942543602388</v>
+        <v>2.907871333012113</v>
       </c>
       <c r="F59">
-        <v>2.911706438358499</v>
+        <v>2.073980177087847</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>3.300284293776363</v>
+        <v>3.081390266106374</v>
       </c>
       <c r="C60">
-        <v>3.311925973939432</v>
+        <v>2.346641957428075</v>
       </c>
       <c r="D60">
-        <v>2.458883626481475</v>
+        <v>2.523040328359986</v>
       </c>
       <c r="E60">
-        <v>3.85633127513785</v>
+        <v>2.943476660475975</v>
       </c>
       <c r="F60">
-        <v>2.932252160202365</v>
+        <v>2.079686644856601</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>3.333402492202985</v>
+        <v>3.120268031352675</v>
       </c>
       <c r="C61">
-        <v>3.350543546543627</v>
+        <v>2.362778377241742</v>
       </c>
       <c r="D61">
-        <v>2.472208637123952</v>
+        <v>2.540474988483289</v>
       </c>
       <c r="E61">
-        <v>3.896659096512723</v>
+        <v>2.980454721547708</v>
       </c>
       <c r="F61">
-        <v>2.953299975819334</v>
+        <v>2.085881537230327</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>3.367554776849241</v>
+        <v>3.160388877863201</v>
       </c>
       <c r="C62">
-        <v>3.39037736081387</v>
+        <v>2.379996926554701</v>
       </c>
       <c r="D62">
-        <v>2.485969458696731</v>
+        <v>2.558763775593238</v>
       </c>
       <c r="E62">
-        <v>3.938005080527794</v>
+        <v>3.018840406081045</v>
       </c>
       <c r="F62">
-        <v>2.974896106386925</v>
+        <v>2.09261504082156</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>3.40281177142817</v>
+        <v>3.201769479752047</v>
       </c>
       <c r="C63">
-        <v>3.43147060834656</v>
+        <v>2.398409989196273</v>
       </c>
       <c r="D63">
-        <v>2.500199326372157</v>
+        <v>2.577990762272289</v>
       </c>
       <c r="E63">
-        <v>3.980451796494898</v>
+        <v>3.058663535593949</v>
       </c>
       <c r="F63">
-        <v>2.99709125715995</v>
+        <v>2.099943514919453</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>3.439246471071065</v>
+        <v>3.244421946551247</v>
       </c>
       <c r="C64">
-        <v>3.473863164813347</v>
+        <v>2.418143342916514</v>
       </c>
       <c r="D64">
-        <v>2.514934421901144</v>
+        <v>2.598250499278647</v>
       </c>
       <c r="E64">
-        <v>4.02408468883037</v>
+        <v>3.099947998823217</v>
       </c>
       <c r="F64">
-        <v>3.019941017208589</v>
+        <v>2.107930361511386</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>3.476933634858581</v>
+        <v>3.288353437619415</v>
       </c>
       <c r="C65">
-        <v>3.517590632546722</v>
+        <v>2.439337072614249</v>
       </c>
       <c r="D65">
-        <v>2.53021411153344</v>
+        <v>2.619649295407036</v>
       </c>
       <c r="E65">
-        <v>4.068991307581383</v>
+        <v>3.142710942987037</v>
       </c>
       <c r="F65">
-        <v>3.043506311552727</v>
+        <v>2.116646937711026</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>3.515949029172034</v>
+        <v>3.333565845415502</v>
       </c>
       <c r="C66">
-        <v>3.562683353149325</v>
+        <v>2.462146098354775</v>
       </c>
       <c r="D66">
-        <v>2.546081206133847</v>
+        <v>2.642306548868854</v>
       </c>
       <c r="E66">
-        <v>4.115260364125327</v>
+        <v>3.186962062211326</v>
       </c>
       <c r="F66">
-        <v>3.067853837000851</v>
+        <v>2.126173537852625</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>3.556368509913018</v>
+        <v>3.380055556764567</v>
       </c>
       <c r="C67">
-        <v>3.609165430984861</v>
+        <v>2.486739608745425</v>
       </c>
       <c r="D67">
-        <v>2.562582239874518</v>
+        <v>2.666355991566716</v>
       </c>
       <c r="E67">
-        <v>4.162980594426745</v>
+        <v>3.232703028272192</v>
       </c>
       <c r="F67">
-        <v>3.09305656048139</v>
+        <v>2.136600416059646</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3.598266919926671</v>
+        <v>3.427813334020182</v>
       </c>
       <c r="C68">
-        <v>3.657053789540839</v>
+        <v>2.513299444175923</v>
       </c>
       <c r="D68">
-        <v>2.579767761426844</v>
+        <v>2.691946773984152</v>
       </c>
       <c r="E68">
-        <v>4.212239401364241</v>
+        <v>3.2799271113685</v>
       </c>
       <c r="F68">
-        <v>3.119194179075423</v>
+        <v>2.148028780752504</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3.641716807687037</v>
+        <v>3.476824315628718</v>
       </c>
       <c r="C69">
-        <v>3.706357319882891</v>
+        <v>2.542016525712595</v>
       </c>
       <c r="D69">
-        <v>2.597692627287528</v>
+        <v>2.719244048696343</v>
       </c>
       <c r="E69">
-        <v>4.263121278979581</v>
+        <v>3.32861894367754</v>
       </c>
       <c r="F69">
-        <v>3.146353541411707</v>
+        <v>2.160571691030668</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3.686786957062089</v>
+        <v>3.527068143840233</v>
       </c>
       <c r="C70">
-        <v>3.75707616282694</v>
+        <v>2.573084571224046</v>
       </c>
       <c r="D70">
-        <v>2.616416283670868</v>
+        <v>2.74842874515022</v>
       </c>
       <c r="E70">
-        <v>4.315706009417005</v>
+        <v>3.378754738227373</v>
       </c>
       <c r="F70">
-        <v>3.174628923262908</v>
+        <v>2.174354736416849</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3.733540761084262</v>
+        <v>3.578519191213216</v>
       </c>
       <c r="C71">
-        <v>3.809201172801315</v>
+        <v>2.606690506878337</v>
       </c>
       <c r="D71">
-        <v>2.636003016680939</v>
+        <v>2.779696138820585</v>
       </c>
       <c r="E71">
-        <v>4.37006667202573</v>
+        <v>3.430302523761672</v>
       </c>
       <c r="F71">
-        <v>3.204122163394679</v>
+        <v>2.189516044623647</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3.782034468575896</v>
+        <v>3.631146929197052</v>
       </c>
       <c r="C72">
-        <v>3.862713565489539</v>
+        <v>2.643001547136021</v>
       </c>
       <c r="D72">
-        <v>2.656522141832331</v>
+        <v>2.813252572506942</v>
       </c>
       <c r="E72">
-        <v>4.426267499478109</v>
+        <v>3.483222659865121</v>
       </c>
       <c r="F72">
-        <v>3.234942478457268</v>
+        <v>2.206205522098127</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>3.832315370940772</v>
+        <v>3.684916379026958</v>
       </c>
       <c r="C73">
-        <v>3.917584857462665</v>
+        <v>2.682149050521164</v>
       </c>
       <c r="D73">
-        <v>2.678048093066089</v>
+        <v>2.849309573124737</v>
       </c>
       <c r="E73">
-        <v>4.484361666142165</v>
+        <v>3.537468609737961</v>
       </c>
       <c r="F73">
-        <v>3.267205816901211</v>
+        <v>2.224582864302476</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>3.884420006886959</v>
+        <v>3.739788639905299</v>
       </c>
       <c r="C74">
-        <v>3.973777033584906</v>
+        <v>2.724211067292968</v>
       </c>
       <c r="D74">
-        <v>2.700660360001433</v>
+        <v>2.888074484348014</v>
       </c>
       <c r="E74">
-        <v>4.544389107982048</v>
+        <v>3.592987883273479</v>
       </c>
       <c r="F74">
-        <v>3.301033674235947</v>
+        <v>2.244813826700572</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>3.938372490439578</v>
+        <v>3.795721479141057</v>
       </c>
       <c r="C75">
-        <v>4.031242987080715</v>
+        <v>2.76919643925465</v>
       </c>
       <c r="D75">
-        <v>2.724443213092016</v>
+        <v>2.929737602909821</v>
       </c>
       <c r="E75">
-        <v>4.606374509274184</v>
+        <v>3.649723067617092</v>
       </c>
       <c r="F75">
-        <v>3.336551176749107</v>
+        <v>2.267063631725507</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>3.994183062173392</v>
+        <v>3.852669955642047</v>
       </c>
       <c r="C76">
-        <v>4.089927211415407</v>
+        <v>2.817034188425944</v>
       </c>
       <c r="D76">
-        <v>2.749485124092488</v>
+        <v>2.974456322458929</v>
       </c>
       <c r="E76">
-        <v>4.670325591815915</v>
+        <v>3.707612932372428</v>
       </c>
       <c r="F76">
-        <v>3.373883800118073</v>
+        <v>2.291488069023989</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>4.051847008625639</v>
+        <v>3.910587090607245</v>
       </c>
       <c r="C77">
-        <v>4.149766714331457</v>
+        <v>2.867572549149209</v>
       </c>
       <c r="D77">
-        <v>2.775877795635871</v>
+        <v>3.022337077149713</v>
       </c>
       <c r="E77">
-        <v>4.736231872447143</v>
+        <v>3.76659355652057</v>
       </c>
       <c r="F77">
-        <v>3.413153218715147</v>
+        <v>2.318221713193585</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>4.111344005464418</v>
+        <v>3.969424470377235</v>
       </c>
       <c r="C78">
-        <v>4.210692118578949</v>
+        <v>2.920587191366396</v>
       </c>
       <c r="D78">
-        <v>2.803714689407566</v>
+        <v>3.07341828847974</v>
       </c>
       <c r="E78">
-        <v>4.804063984637174</v>
+        <v>3.826599427684049</v>
       </c>
       <c r="F78">
-        <v>3.454472066675919</v>
+        <v>2.347363766056743</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>4.172637986061719</v>
+        <v>4.029132845751472</v>
       </c>
       <c r="C79">
-        <v>4.272628889989681</v>
+        <v>2.975799262812122</v>
       </c>
       <c r="D79">
-        <v>2.833088983074248</v>
+        <v>3.127658163559141</v>
       </c>
       <c r="E79">
-        <v>4.873773730702803</v>
+        <v>3.887564452789157</v>
       </c>
       <c r="F79">
-        <v>3.497937291223129</v>
+        <v>2.378963779997849</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4.235677571583571</v>
+        <v>4.089662704080468</v>
       </c>
       <c r="C80">
-        <v>4.335498645035498</v>
+        <v>3.032898508660777</v>
       </c>
       <c r="D80">
-        <v>2.864090824359374</v>
+        <v>3.184930580441356</v>
       </c>
       <c r="E80">
-        <v>4.945294799367855</v>
+        <v>3.949422873677852</v>
       </c>
       <c r="F80">
-        <v>3.543622779782768</v>
+        <v>2.41300971292795</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>4.300397042977024</v>
+        <v>4.150964777849579</v>
       </c>
       <c r="C81">
-        <v>4.399220473258674</v>
+        <v>3.091566592712395</v>
       </c>
       <c r="D81">
-        <v>2.89680389815524</v>
+        <v>3.245031999815419</v>
       </c>
       <c r="E81">
-        <v>5.018544204452787</v>
+        <v>4.01211006145183</v>
       </c>
       <c r="F81">
-        <v>3.591572491550948</v>
+        <v>2.449421482747823</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>4.36671780971384</v>
+        <v>4.21299048586925</v>
       </c>
       <c r="C82">
-        <v>4.463712217976092</v>
+        <v>3.151496744199497</v>
       </c>
       <c r="D82">
-        <v>2.93130134076657</v>
+        <v>3.307697408202366</v>
       </c>
       <c r="E82">
-        <v>5.093424337625112</v>
+        <v>4.075563170574354</v>
       </c>
       <c r="F82">
-        <v>3.641793440000145</v>
+        <v>2.488052400616616</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>4.434550278912316</v>
+        <v>4.275692306850059</v>
       </c>
       <c r="C83">
-        <v>4.528891675854608</v>
+        <v>3.212407454868689</v>
       </c>
       <c r="D83">
-        <v>2.96764117669292</v>
+        <v>3.372623010497572</v>
       </c>
       <c r="E83">
-        <v>5.169825476503202</v>
+        <v>4.139721660744357</v>
       </c>
       <c r="F83">
-        <v>3.694251374683825</v>
+        <v>2.528699230909357</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>4.503796006002937</v>
+        <v>4.339024092438398</v>
       </c>
       <c r="C84">
-        <v>4.594677666047391</v>
+        <v>3.274049931774259</v>
       </c>
       <c r="D84">
-        <v>3.005861593511255</v>
+        <v>3.439490360075524</v>
       </c>
       <c r="E84">
-        <v>5.247628589792496</v>
+        <v>4.204527691152917</v>
       </c>
       <c r="F84">
-        <v>3.748869874117606</v>
+        <v>2.571118688709898</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>4.574349993063254</v>
+        <v>4.402941315565132</v>
       </c>
       <c r="C85">
-        <v>4.66099095328943</v>
+        <v>3.336210548904133</v>
       </c>
       <c r="D85">
-        <v>3.045976451706803</v>
+        <v>3.507987545930336</v>
       </c>
       <c r="E85">
-        <v>5.326708244516289</v>
+        <v>4.269926397163267</v>
       </c>
       <c r="F85">
-        <v>3.80553235878872</v>
+        <v>2.615047281568176</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4.646102965948735</v>
+        <v>4.467401257321287</v>
       </c>
       <c r="C86">
-        <v>4.727754988815014</v>
+        <v>3.398709766681228</v>
       </c>
       <c r="D86">
-        <v>3.087971764517806</v>
+        <v>3.577824819318581</v>
       </c>
       <c r="E86">
-        <v>5.406935422743131</v>
+        <v>4.335866063751102</v>
       </c>
       <c r="F86">
-        <v>3.864087782202382</v>
+        <v>2.66022016954667</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>4.718943728605214</v>
+        <v>4.532363143910224</v>
       </c>
       <c r="C87">
-        <v>4.794896579025226</v>
+        <v>3.461398929158021</v>
       </c>
       <c r="D87">
-        <v>3.131803618106694</v>
+        <v>3.648743892106385</v>
       </c>
       <c r="E87">
-        <v>5.488180191535846</v>
+        <v>4.402298212971353</v>
       </c>
       <c r="F87">
-        <v>3.924359331952755</v>
+        <v>2.70638627659856</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>4.792760938642401</v>
+        <v>4.597788225652413</v>
       </c>
       <c r="C88">
-        <v>4.86234619851651</v>
+        <v>3.524156213509501</v>
       </c>
       <c r="D88">
-        <v>3.177397839548636</v>
+        <v>3.720521742648137</v>
       </c>
       <c r="E88">
-        <v>5.570313868222319</v>
+        <v>4.469177619637567</v>
       </c>
       <c r="F88">
-        <v>3.986154080451568</v>
+        <v>2.753318389180948</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>4.867445022051213</v>
+        <v>4.663639831861794</v>
       </c>
       <c r="C89">
-        <v>4.930038386947108</v>
+        <v>3.586882414871138</v>
       </c>
       <c r="D89">
-        <v>3.224652065379174</v>
+        <v>3.79297038910647</v>
       </c>
       <c r="E89">
-        <v>5.65321106543727</v>
+        <v>4.53646226970038</v>
       </c>
       <c r="F89">
-        <v>4.049273015200478</v>
+        <v>2.80081817743668</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>4.94288959275216</v>
+        <v>4.729883383040292</v>
       </c>
       <c r="C90">
-        <v>4.997911885716777</v>
+        <v>3.649497010592195</v>
       </c>
       <c r="D90">
-        <v>3.273439054770054</v>
+        <v>3.865934181691788</v>
       </c>
       <c r="E90">
-        <v>5.736751181260167</v>
+        <v>4.604113274597141</v>
       </c>
       <c r="F90">
-        <v>4.113519777954908</v>
+        <v>2.848717398855162</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5.018992589094148</v>
+        <v>4.796486372866053</v>
       </c>
       <c r="C91">
-        <v>5.065909712360354</v>
+        <v>3.71193471495858</v>
       </c>
       <c r="D91">
-        <v>3.323612789833368</v>
+        <v>3.939285866094152</v>
       </c>
       <c r="E91">
-        <v>5.820819533699662</v>
+        <v>4.672094752588522</v>
       </c>
       <c r="F91">
-        <v>4.178707656146722</v>
+        <v>2.896876375796733</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5.095657113464014</v>
+        <v>4.863418331701831</v>
       </c>
       <c r="C92">
-        <v>5.133979137174356</v>
+        <v>3.774142558166502</v>
       </c>
       <c r="D92">
-        <v>3.375014668168968</v>
+        <v>4.012922293923336</v>
       </c>
       <c r="E92">
-        <v>5.905308139677561</v>
+        <v>4.740373686873594</v>
       </c>
       <c r="F92">
-        <v>4.24466430976778</v>
+        <v>2.945181039405528</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5.172791961277127</v>
+        <v>4.930650771512706</v>
       </c>
       <c r="C93">
-        <v>5.20207159732204</v>
+        <v>3.836077482833598</v>
       </c>
       <c r="D93">
-        <v>3.427479639464282</v>
+        <v>4.086760302207831</v>
       </c>
       <c r="E93">
-        <v>5.990116145573487</v>
+        <v>4.808919767812283</v>
       </c>
       <c r="F93">
-        <v>4.311234507872832</v>
+        <v>2.993539364792568</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5.250312006514514</v>
+        <v>4.998157115979261</v>
       </c>
       <c r="C94">
-        <v>5.270142558350702</v>
+        <v>3.897704396656852</v>
       </c>
       <c r="D94">
-        <v>3.480842981867768</v>
+        <v>4.160733027044486</v>
       </c>
       <c r="E94">
-        <v>6.075150012445313</v>
+        <v>4.87770522622459</v>
       </c>
       <c r="F94">
-        <v>4.378280612635797</v>
+        <v>3.041877772344302</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5.328138309252067</v>
+        <v>5.065912621664763</v>
       </c>
       <c r="C95">
-        <v>5.338151328357093</v>
+        <v>3.958994611254179</v>
       </c>
       <c r="D95">
-        <v>3.534945302539712</v>
+        <v>4.234786753107684</v>
       </c>
       <c r="E95">
-        <v>6.160323515904139</v>
+        <v>4.946704662939101</v>
       </c>
       <c r="F95">
-        <v>4.445683056095466</v>
+        <v>3.090137811610786</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5.406198052756894</v>
+        <v>5.133894292009674</v>
       </c>
       <c r="C96">
-        <v>5.406060859181296</v>
+        <v>4.01992457971051</v>
       </c>
       <c r="D96">
-        <v>3.589636077393369</v>
+        <v>4.308878299132743</v>
       </c>
       <c r="E96">
-        <v>6.245557551949467</v>
+        <v>5.015894878564819</v>
       </c>
       <c r="F96">
-        <v>4.513338874146686</v>
+        <v>3.138273278216226</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5.484424406995049</v>
+        <v>5.202080786603632</v>
       </c>
       <c r="C97">
-        <v>5.473837532960518</v>
+        <v>4.080474912726433</v>
       </c>
       <c r="D97">
-        <v>3.644776359236195</v>
+        <v>4.382972868592965</v>
       </c>
       <c r="E97">
-        <v>6.330779837373771</v>
+        <v>5.085254706756908</v>
       </c>
       <c r="F97">
-        <v>4.581159924871756</v>
+        <v>3.186247774540616</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5.562756301101678</v>
+        <v>5.270452328511632</v>
       </c>
       <c r="C98">
-        <v>5.54145093774223</v>
+        <v>4.140629621848092</v>
       </c>
       <c r="D98">
-        <v>3.700240345940935</v>
+        <v>4.457042331850801</v>
       </c>
       <c r="E98">
-        <v>6.41592455621748</v>
+        <v>5.154764853315114</v>
       </c>
       <c r="F98">
-        <v>4.649071248044385</v>
+        <v>3.234032720798286</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5.641138113986313</v>
+        <v>5.338990610981662</v>
       </c>
       <c r="C99">
-        <v>5.60887364383919</v>
+        <v>4.20037548112657</v>
       </c>
       <c r="D99">
-        <v>3.755915787219929</v>
+        <v>4.531063897772162</v>
       </c>
       <c r="E99">
-        <v>6.500931963816216</v>
+        <v>5.224407742669057</v>
       </c>
       <c r="F99">
-        <v>4.717009445434659</v>
+        <v>3.281605734273617</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5.71951932174707</v>
+        <v>5.407678705071747</v>
       </c>
       <c r="C100">
-        <v>5.67608098432669</v>
+        <v>4.259701525202882</v>
       </c>
       <c r="D100">
-        <v>3.81170377446881</v>
+        <v>4.605019015499648</v>
       </c>
       <c r="E100">
-        <v>6.585747953492565</v>
+        <v>5.294167373269858</v>
       </c>
       <c r="F100">
-        <v>4.784920944232065</v>
+        <v>3.328949343179759</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5.797854139387094</v>
+        <v>5.47650096928631</v>
       </c>
       <c r="C101">
-        <v>5.743050840676308</v>
+        <v>4.318598665921649</v>
       </c>
       <c r="D101">
-        <v>3.867518043043416</v>
+        <v>4.678892506471692</v>
       </c>
       <c r="E101">
-        <v>6.670323583614306</v>
+        <v>5.364029181820438</v>
       </c>
       <c r="F101">
-        <v>4.85276032793227</v>
+        <v>3.376049961980651</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5.876101167275538</v>
+        <v>5.545442962134529</v>
       </c>
       <c r="C102">
-        <v>5.809763441737637</v>
+        <v>4.377059379168723</v>
       </c>
       <c r="D102">
-        <v>3.923283984534352</v>
+        <v>4.752671906240802</v>
       </c>
       <c r="E102">
-        <v>6.754614690241183</v>
+        <v>5.433979915899418</v>
       </c>
       <c r="F102">
-        <v>4.92048908559052</v>
+        <v>3.422897090205755</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5.954223039276252</v>
+        <v>5.614491358292216</v>
       </c>
       <c r="C103">
-        <v>5.876201172678441</v>
+        <v>4.435077449421476</v>
       </c>
       <c r="D103">
-        <v>3.978937481540509</v>
+        <v>4.82634692956406</v>
       </c>
       <c r="E103">
-        <v>6.83858148254392</v>
+        <v>5.504007517307585</v>
       </c>
       <c r="F103">
-        <v>4.988074569652601</v>
+        <v>3.469482652000924</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6.03218607728808</v>
+        <v>5.683633868448717</v>
       </c>
       <c r="C104">
-        <v>5.94234839408451</v>
+        <v>4.492647767618728</v>
       </c>
       <c r="D104">
-        <v>4.034423733086283</v>
+        <v>4.899909051220063</v>
       </c>
       <c r="E104">
-        <v>6.922188143438183</v>
+        <v>5.574101015451704</v>
       </c>
       <c r="F104">
-        <v>5.055489032119267</v>
+        <v>3.515800488784588</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6.109959963034717</v>
+        <v>5.752859163087199</v>
       </c>
       <c r="C105">
-        <v>6.008191273847811</v>
+        <v>4.549766166791673</v>
       </c>
       <c r="D105">
-        <v>4.089696110690479</v>
+        <v>4.97335117472621</v>
       </c>
       <c r="E105">
-        <v>7.005402471716897</v>
+        <v>5.644250428628222</v>
       </c>
       <c r="F105">
-        <v>5.122708781306606</v>
+        <v>3.561845985529927</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6.18751743359861</v>
+        <v>5.822156801221318</v>
       </c>
       <c r="C106">
-        <v>6.07371763392888</v>
+        <v>4.606429287131345</v>
       </c>
       <c r="D106">
-        <v>4.144715072811336</v>
+        <v>5.046667368924545</v>
       </c>
       <c r="E106">
-        <v>7.08819555626254</v>
+        <v>5.714446673158879</v>
       </c>
       <c r="F106">
-        <v>5.189713522356318</v>
+        <v>3.607615768060514</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6.264834000535381</v>
+        <v>5.891517163765386</v>
       </c>
       <c r="C107">
-        <v>6.138916804132852</v>
+        <v>4.662634465787658</v>
       </c>
       <c r="D107">
-        <v>4.199447180761563</v>
+        <v>5.119852660698075</v>
       </c>
       <c r="E107">
-        <v>7.170541472565573</v>
+        <v>5.784681480565959</v>
       </c>
       <c r="F107">
-        <v>5.256485560637068</v>
+        <v>3.653107444449228</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6.341887690521711</v>
+        <v>5.960931390706245</v>
       </c>
       <c r="C108">
-        <v>6.203779487935789</v>
+        <v>4.718379645277957</v>
       </c>
       <c r="D108">
-        <v>4.253864246025286</v>
+        <v>5.192902865956674</v>
       </c>
       <c r="E108">
-        <v>7.252416989810367</v>
+        <v>5.854947322886375</v>
       </c>
       <c r="F108">
-        <v>5.323009691267981</v>
+        <v>3.69831940058558</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6.418658806737052</v>
+        <v>6.030391322406132</v>
       </c>
       <c r="C109">
-        <v>6.268297642976497</v>
+        <v>4.773663297592404</v>
       </c>
       <c r="D109">
-        <v>4.307942575731946</v>
+        <v>5.2658144570535</v>
       </c>
       <c r="E109">
-        <v>7.333801327157807</v>
+        <v>5.925237344668929</v>
       </c>
       <c r="F109">
-        <v>5.389272762266544</v>
+        <v>3.743250646980461</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6.495129711921058</v>
+        <v>6.09988944527962</v>
       </c>
       <c r="C110">
-        <v>6.33246436554528</v>
+        <v>4.828484360789735</v>
       </c>
       <c r="D110">
-        <v>4.36166231499439</v>
+        <v>5.338584455167637</v>
       </c>
       <c r="E110">
-        <v>7.414675931239823</v>
+        <v>5.995545301080091</v>
       </c>
       <c r="F110">
-        <v>5.455263310513201</v>
+        <v>3.787900701177291</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6.571284631712818</v>
+        <v>6.169418841559743</v>
       </c>
       <c r="C111">
-        <v>6.396273793114804</v>
+        <v>4.882842185247605</v>
       </c>
       <c r="D111">
-        <v>4.415006882121217</v>
+        <v>5.411210343691138</v>
       </c>
       <c r="E111">
-        <v>7.495024267660833</v>
+        <v>6.065865501712254</v>
       </c>
       <c r="F111">
-        <v>5.520971246470876</v>
+        <v>3.832269490991518</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6.647109477065189</v>
+        <v>6.238973142728056</v>
       </c>
       <c r="C112">
-        <v>6.459721014930094</v>
+        <v>4.936736488163865</v>
       </c>
       <c r="D112">
-        <v>4.467962483771721</v>
+        <v>5.483689997136003</v>
       </c>
       <c r="E112">
-        <v>7.574831633716516</v>
+        <v>6.136192759760526</v>
       </c>
       <c r="F112">
-        <v>5.586387651850754</v>
+        <v>3.876357273979221</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6.722591683753673</v>
+        <v>6.308546486398813</v>
       </c>
       <c r="C113">
-        <v>6.522801981082038</v>
+        <v>4.990167313422587</v>
       </c>
       <c r="D113">
-        <v>4.520517694777694</v>
+        <v>5.556021620826669</v>
       </c>
       <c r="E113">
-        <v>7.654084988896218</v>
+        <v>6.206522346118066</v>
       </c>
       <c r="F113">
-        <v>5.651504644568903</v>
+        <v>3.920164573127703</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6.797720067491182</v>
+        <v>6.37813347654882</v>
       </c>
       <c r="C114">
-        <v>6.585513426166726</v>
+        <v>5.043134997537253</v>
       </c>
       <c r="D114">
-        <v>4.572663125743933</v>
+        <v>5.62820370473141</v>
       </c>
       <c r="E114">
-        <v>7.732772799052627</v>
+        <v>6.276849947750615</v>
       </c>
       <c r="F114">
-        <v>5.716315252125717</v>
+        <v>3.963692126789851</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6.872484693398373</v>
+        <v>6.447729146901942</v>
       </c>
       <c r="C115">
-        <v>6.647852793820242</v>
+        <v>5.095640141317375</v>
       </c>
       <c r="D115">
-        <v>4.624391120818704</v>
+        <v>5.700234986321683</v>
       </c>
       <c r="E115">
-        <v>7.810884904703299</v>
+        <v>6.347171630040408</v>
       </c>
       <c r="F115">
-        <v>5.780813282165925</v>
+        <v>4.00694085048297</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6.946876758590043</v>
+        <v>6.517328927211262</v>
       </c>
       <c r="C116">
-        <v>6.709818177637445</v>
+        <v>5.147683584639603</v>
       </c>
       <c r="D116">
-        <v>4.675695507929115</v>
+        <v>5.77211441860086</v>
       </c>
       <c r="E116">
-        <v>7.888412397145122</v>
+        <v>6.417483802706425</v>
       </c>
       <c r="F116">
-        <v>5.844993208763679</v>
+        <v>4.049911801243515</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7.020888491056361</v>
+        <v>6.586928612210062</v>
       </c>
       <c r="C117">
-        <v>6.771408260506615</v>
+        <v>5.199266384781926</v>
       </c>
       <c r="D117">
-        <v>4.726571387532241</v>
+        <v>5.84384114204579</v>
       </c>
       <c r="E117">
-        <v>7.965347507573265</v>
+        <v>6.487783188997446</v>
       </c>
       <c r="F117">
-        <v>5.9088500870991</v>
+        <v>4.092606155378777</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7.094513045132373</v>
+        <v>6.656524333053686</v>
       </c>
       <c r="C118">
-        <v>6.832622261206933</v>
+        <v>5.250389794998839</v>
       </c>
       <c r="D118">
-        <v>4.777014953769782</v>
+        <v>5.91541446082566</v>
       </c>
       <c r="E118">
-        <v>8.041683507083198</v>
+        <v>6.558066797818416</v>
       </c>
       <c r="F118">
-        <v>5.972379491491864</v>
+        <v>4.135025170742053</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7.167744426437051</v>
+        <v>6.726112531065096</v>
       </c>
       <c r="C119">
-        <v>6.893459883622499</v>
+        <v>5.301055246594723</v>
       </c>
       <c r="D119">
-        <v>4.827023338197469</v>
+        <v>5.986833823469727</v>
       </c>
       <c r="E119">
-        <v>8.117414614494921</v>
+        <v>6.62833189849201</v>
       </c>
       <c r="F119">
-        <v>6.035577463659839</v>
+        <v>4.177170187508723</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7.240577397767471</v>
+        <v>6.795689933575308</v>
       </c>
       <c r="C120">
-        <v>6.953921274077227</v>
+        <v>5.351264333444428</v>
       </c>
       <c r="D120">
-        <v>4.87659448648861</v>
+        <v>6.058098807039721</v>
       </c>
       <c r="E120">
-        <v>8.192535915349657</v>
+        <v>6.698575997900512</v>
       </c>
       <c r="F120">
-        <v>6.09844046140583</v>
+        <v>4.219042608876647</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7.313007420083308</v>
+        <v>6.865253531790641</v>
       </c>
       <c r="C121">
-        <v>7.014006979685871</v>
+        <v>5.401018797846738</v>
       </c>
       <c r="D121">
-        <v>4.925727047916235</v>
+        <v>6.129209103466614</v>
       </c>
       <c r="E121">
-        <v>8.267043288656156</v>
+        <v>6.768796819783218</v>
       </c>
       <c r="F121">
-        <v>6.160965316246545</v>
+        <v>4.260643882699035</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7.385030602946297</v>
+        <v>6.934800560399096</v>
       </c>
       <c r="C122">
-        <v>7.073717911105597</v>
+        <v>5.45032051775965</v>
       </c>
       <c r="D122">
-        <v>4.974420280780878</v>
+        <v>6.200164508558067</v>
       </c>
       <c r="E122">
-        <v>8.340933338949304</v>
+        <v>6.838992286669065</v>
       </c>
       <c r="F122">
-        <v>6.223149191365008</v>
+        <v>4.301975503672278</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7.456643624662376</v>
+        <v>7.004328478953373</v>
       </c>
       <c r="C123">
-        <v>7.133055307865411</v>
+        <v>5.499171495944804</v>
       </c>
       <c r="D123">
-        <v>5.022673972562215</v>
+        <v>6.270964909215404</v>
       </c>
       <c r="E123">
-        <v>8.41420333537137</v>
+        <v>6.909160501443096</v>
       </c>
       <c r="F123">
-        <v>6.284989563014582</v>
+        <v>4.343038996089462</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7.527843703159713</v>
+        <v>7.073834954791976</v>
       </c>
       <c r="C124">
-        <v>7.192020707880032</v>
+        <v>5.547573846823687</v>
       </c>
       <c r="D124">
-        <v>5.070488371704469</v>
+        <v>6.341610277856785</v>
       </c>
       <c r="E124">
-        <v>8.486851156591465</v>
+        <v>6.979299732473902</v>
       </c>
       <c r="F124">
-        <v>6.346484169863396</v>
+        <v>4.383835908082655</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7.598628538707442</v>
+        <v>7.143317847169494</v>
       </c>
       <c r="C125">
-        <v>7.25061591969258</v>
+        <v>5.595529789922598</v>
       </c>
       <c r="D125">
-        <v>5.117864128778221</v>
+        <v>6.412100657170572</v>
       </c>
       <c r="E125">
-        <v>8.558875243573379</v>
+        <v>7.049408400354522</v>
       </c>
       <c r="F125">
-        <v>6.407631018863896</v>
+        <v>4.424367806535654</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7.668996267760519</v>
+        <v>7.212775191072882</v>
       </c>
       <c r="C126">
-        <v>7.308842995791091</v>
+        <v>5.643041636468622</v>
       </c>
       <c r="D126">
-        <v>5.164802245255723</v>
+        <v>6.482436162238969</v>
       </c>
       <c r="E126">
-        <v>8.630274543365411</v>
+        <v>7.11948506266191</v>
       </c>
       <c r="F126">
-        <v>6.468428352313351</v>
+        <v>4.464636273469557</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7.73894543063428</v>
+        <v>7.282205186151645</v>
       </c>
       <c r="C127">
-        <v>7.366704212997158</v>
+        <v>5.690111785091609</v>
       </c>
       <c r="D127">
-        <v>5.211304031692888</v>
+        <v>6.552616968043584</v>
       </c>
       <c r="E127">
-        <v>8.701048488540547</v>
+        <v>7.189528406047259</v>
       </c>
       <c r="F127">
-        <v>6.528874627013912</v>
+        <v>4.504642899823018</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7.808474938322527</v>
+        <v>7.351606183733693</v>
       </c>
       <c r="C128">
-        <v>7.424202038324609</v>
+        <v>5.73674271424772</v>
       </c>
       <c r="D128">
-        <v>5.257371068869887</v>
+        <v>6.622643307281479</v>
       </c>
       <c r="E128">
-        <v>8.771196913009554</v>
+        <v>7.259537234203292</v>
       </c>
       <c r="F128">
-        <v>6.588968511820774</v>
+        <v>4.544389285769106</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7.877584032576846</v>
+        <v>7.42097667444787</v>
       </c>
       <c r="C129">
-        <v>7.48133913180965</v>
+        <v>5.782936972101065</v>
       </c>
       <c r="D129">
-        <v>5.303005174998123</v>
+        <v>6.6925154661165</v>
       </c>
       <c r="E129">
-        <v>8.840720082617077</v>
+        <v>7.329510457831288</v>
       </c>
       <c r="F129">
-        <v>6.648708861175382</v>
+        <v>4.583877036382868</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7.946272268943998</v>
+        <v>7.490315280042559</v>
       </c>
       <c r="C130">
-        <v>7.538118289900361</v>
+        <v>5.828697175184737</v>
       </c>
       <c r="D130">
-        <v>5.348208377258077</v>
+        <v>6.762233776946708</v>
       </c>
       <c r="E130">
-        <v>8.909618590137415</v>
+        <v>7.399447086081808</v>
       </c>
       <c r="F130">
-        <v>6.708094706506727</v>
+        <v>4.62310775917449</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>8.014539485932431</v>
+        <v>7.559620742322386</v>
       </c>
       <c r="C131">
-        <v>7.594542479983086</v>
+        <v>5.874025997577895</v>
       </c>
       <c r="D131">
-        <v>5.392982890776798</v>
+        <v>6.831798616765756</v>
       </c>
       <c r="E131">
-        <v>8.977893399560358</v>
+        <v>7.469346218745337</v>
       </c>
       <c r="F131">
-        <v>6.7671252453873</v>
+        <v>4.6620830626341</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>8.082385778059461</v>
+        <v>7.628891914099495</v>
       </c>
       <c r="C132">
-        <v>7.650614768529403</v>
+        <v>5.918926167989295</v>
       </c>
       <c r="D132">
-        <v>5.437331085374282</v>
+        <v>6.90121040216638</v>
       </c>
       <c r="E132">
-        <v>9.04554575814176</v>
+        <v>7.539207038990102</v>
       </c>
       <c r="F132">
-        <v>6.825799827221048</v>
+        <v>4.700804554428958</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>8.149811479879</v>
+        <v>7.698127751313766</v>
       </c>
       <c r="C133">
-        <v>7.706338364277454</v>
+        <v>5.963400463427538</v>
       </c>
       <c r="D133">
-        <v>5.481255483405702</v>
+        <v>6.970469585851595</v>
       </c>
       <c r="E133">
-        <v>9.112577217018892</v>
+        <v>7.609028805923886</v>
       </c>
       <c r="F133">
-        <v>6.884117949052709</v>
+        <v>4.739273839680091</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>8.21681714369176</v>
+        <v>7.767327305836005</v>
       </c>
       <c r="C134">
-        <v>7.761716556410736</v>
+        <v>6.007451704034469</v>
       </c>
       <c r="D134">
-        <v>5.524758716218444</v>
+        <v>7.039576655233221</v>
       </c>
       <c r="E134">
-        <v>9.178989576022003</v>
+        <v>7.678810849950785</v>
       </c>
       <c r="F134">
-        <v>6.942079245654683</v>
+        <v>4.77749252037401</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>8.283403518295078</v>
+        <v>7.83648971824427</v>
       </c>
       <c r="C135">
-        <v>7.816752741922397</v>
+        <v>6.051082750356191</v>
       </c>
       <c r="D135">
-        <v>5.567843541300086</v>
+        <v>7.108532127645749</v>
       </c>
       <c r="E135">
-        <v>9.244784879416368</v>
+        <v>7.748552566563237</v>
       </c>
       <c r="F135">
-        <v>6.999683479665697</v>
+        <v>4.815462194438389</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>8.349571537825128</v>
+        <v>7.905614211234269</v>
       </c>
       <c r="C136">
-        <v>7.871450385429251</v>
+        <v>6.094296496558997</v>
       </c>
       <c r="D136">
-        <v>5.610512800681696</v>
+        <v>7.177336550160454</v>
       </c>
       <c r="E136">
-        <v>9.309965388117387</v>
+        <v>7.818253411018544</v>
       </c>
       <c r="F136">
-        <v>7.056930538004923</v>
+        <v>4.853184454610647</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>8.415322303918863</v>
+        <v>7.974700084444927</v>
       </c>
       <c r="C137">
-        <v>7.925813029806926</v>
+        <v>6.137095869454274</v>
       </c>
       <c r="D137">
-        <v>5.652769431883377</v>
+        <v>7.245990495887021</v>
       </c>
       <c r="E137">
-        <v>9.374533563167695</v>
+        <v>7.887912894355775</v>
       </c>
       <c r="F137">
-        <v>7.113820422157503</v>
+        <v>4.890660888147327</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>8.480657070072665</v>
+        <v>8.043746708564285</v>
       </c>
       <c r="C138">
-        <v>7.979844270056861</v>
+        <v>6.179483822608312</v>
       </c>
       <c r="D138">
-        <v>5.694616445081673</v>
+        <v>7.314494562303243</v>
       </c>
       <c r="E138">
-        <v>9.438492053185604</v>
+        <v>7.957530579581625</v>
       </c>
       <c r="F138">
-        <v>7.170353242604767</v>
+        <v>4.927893076060691</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>8.545577232659712</v>
+        <v>8.112753520589891</v>
       </c>
       <c r="C139">
-        <v>8.03354776070686</v>
+        <v>6.221463334149902</v>
       </c>
       <c r="D139">
-        <v>5.736056916242934</v>
+        <v>7.382849369559855</v>
       </c>
       <c r="E139">
-        <v>9.501843669806156</v>
+        <v>8.027106074290151</v>
       </c>
       <c r="F139">
-        <v>7.226529213448812</v>
+        <v>4.964882592748219</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>8.610084319550145</v>
+        <v>8.181720018790047</v>
       </c>
       <c r="C140">
-        <v>8.086927191495493</v>
+        <v>6.263037403450745</v>
       </c>
       <c r="D140">
-        <v>5.77709398055373</v>
+        <v>7.451055558057664</v>
       </c>
       <c r="E140">
-        <v>9.564591387400995</v>
+        <v>8.096639034557695</v>
       </c>
       <c r="F140">
-        <v>7.28234864554809</v>
+        <v>5.001631005321959</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>8.674179971716907</v>
+        <v>8.250645757903373</v>
       </c>
       <c r="C141">
-        <v>8.139986298116105</v>
+        <v>6.304209047195125</v>
       </c>
       <c r="D141">
-        <v>5.817730818955659</v>
+        <v>7.519113787391743</v>
       </c>
       <c r="E141">
-        <v>9.626738313693</v>
+        <v>8.166129149194312</v>
       </c>
       <c r="F141">
-        <v>7.337811942736492</v>
+        <v>5.038139873351006</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>8.737865941375674</v>
+        <v>8.319530347196695</v>
       </c>
       <c r="C142">
-        <v>8.192728838189769</v>
+        <v>6.344981298049379</v>
       </c>
       <c r="D142">
-        <v>5.85797065797645</v>
+        <v>7.587024734544579</v>
       </c>
       <c r="E142">
-        <v>9.688287693247615</v>
+        <v>8.235576151740224</v>
       </c>
       <c r="F142">
-        <v>7.392919596598584</v>
+        <v>5.074410749002944</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>8.801144079903834</v>
+        <v>8.388373441222587</v>
       </c>
       <c r="C143">
-        <v>8.245158602379677</v>
+        <v>6.38535720063705</v>
       </c>
       <c r="D143">
-        <v>5.897816756285836</v>
+        <v>7.654789092343379</v>
       </c>
       <c r="E143">
-        <v>9.749242882275702</v>
+        <v>8.304979804612904</v>
       </c>
       <c r="F143">
-        <v>7.447672181056769</v>
+        <v>5.110445175340034</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>8.864016317578066</v>
+        <v>8.457174746291161</v>
       </c>
       <c r="C144">
-        <v>8.297279393923425</v>
+        <v>6.425339810198059</v>
       </c>
       <c r="D144">
-        <v>5.937272406416155</v>
+        <v>7.722407568648667</v>
       </c>
       <c r="E144">
-        <v>9.809607348866129</v>
+        <v>8.374339904261278</v>
       </c>
       <c r="F144">
-        <v>7.502070349249593</v>
+        <v>5.146244688838311</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>8.926484687316663</v>
+        <v>8.525934004410022</v>
       </c>
       <c r="C145">
-        <v>8.349095036601279</v>
+        <v>6.464932189783948</v>
       </c>
       <c r="D145">
-        <v>5.976340924033284</v>
+        <v>7.789880884509292</v>
       </c>
       <c r="E145">
-        <v>9.869384654054695</v>
+        <v>8.443656278679169</v>
       </c>
       <c r="F145">
-        <v>7.55611482845152</v>
+        <v>5.181810815759738</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>8.988551270805715</v>
+        <v>8.594651004796107</v>
       </c>
       <c r="C146">
-        <v>8.400609359231435</v>
+        <v>6.504137408032394</v>
       </c>
       <c r="D146">
-        <v>6.015025647154465</v>
+        <v>7.857209773553961</v>
       </c>
       <c r="E146">
-        <v>9.928578449808505</v>
+        <v>8.512928780086327</v>
       </c>
       <c r="F146">
-        <v>7.60980641626038</v>
+        <v>5.217145075637035</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>9.050218244861663</v>
+        <v>8.663325567674521</v>
       </c>
       <c r="C147">
-        <v>8.451826200729593</v>
+        <v>6.54295853779215</v>
       </c>
       <c r="D147">
-        <v>6.053329930703476</v>
+        <v>7.92439498065036</v>
       </c>
       <c r="E147">
-        <v>9.987192464956875</v>
+        <v>8.58215729010592</v>
       </c>
       <c r="F147">
-        <v>7.663145977248678</v>
+        <v>5.252248978156191</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>9.111487827742419</v>
+        <v>8.731957552976731</v>
       </c>
       <c r="C148">
-        <v>8.502749397932412</v>
+        <v>6.581398653361247</v>
       </c>
       <c r="D148">
-        <v>6.091257141576921</v>
+        <v>7.99143726085257</v>
       </c>
       <c r="E148">
-        <v>10.04523050102938</v>
+        <v>8.651341710843042</v>
       </c>
       <c r="F148">
-        <v>7.716134439205569</v>
+        <v>5.287124024999827</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>9.172362304791955</v>
+        <v>8.800546849472042</v>
       </c>
       <c r="C149">
-        <v>8.553382789874165</v>
+        <v>6.619460829631362</v>
       </c>
       <c r="D149">
-        <v>6.128810657413652</v>
+        <v>8.05833737874584</v>
       </c>
       <c r="E149">
-        <v>10.10269642314518</v>
+        <v>8.720481968911109</v>
       </c>
       <c r="F149">
-        <v>7.768772789701785</v>
+        <v>5.321771708952738</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>9.232844011420767</v>
+        <v>8.869093378204793</v>
       </c>
       <c r="C150">
-        <v>8.60373020703307</v>
+        <v>6.657148139806122</v>
       </c>
       <c r="D150">
-        <v>6.165993860453051</v>
+        <v>8.125096107229618</v>
       </c>
       <c r="E150">
-        <v>10.15959415268764</v>
+        <v>8.789578008931914</v>
       </c>
       <c r="F150">
-        <v>7.821062071641207</v>
+        <v>5.356193513909873</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>9.292935325508321</v>
+        <v>8.937597086903933</v>
       </c>
       <c r="C151">
-        <v>8.653795475838782</v>
+        <v>6.694463654152436</v>
       </c>
       <c r="D151">
-        <v>6.202810137471522</v>
+        <v>8.191714227010468</v>
       </c>
       <c r="E151">
-        <v>10.21592766356308</v>
+        <v>8.858629796542864</v>
       </c>
       <c r="F151">
-        <v>7.873003384126366</v>
+        <v>5.390390914942263</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>9.352638670643529</v>
+        <v>9.006057950026893</v>
       </c>
       <c r="C152">
-        <v>8.703582408924159</v>
+        <v>6.731410438746524</v>
       </c>
       <c r="D152">
-        <v>6.239262874472876</v>
+        <v>8.258192525986884</v>
       </c>
       <c r="E152">
-        <v>10.27170097155097</v>
+        <v>8.92763731273943</v>
       </c>
       <c r="F152">
-        <v>7.924597871747046</v>
+        <v>5.424365378100321</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>9.411956501205404</v>
+        <v>9.074475966167066</v>
       </c>
       <c r="C153">
-        <v>8.753094809400029</v>
+        <v>6.767991553587736</v>
       </c>
       <c r="D153">
-        <v>6.275355456476467</v>
+        <v>8.324531797872755</v>
       </c>
       <c r="E153">
-        <v>10.32691813427807</v>
+        <v>8.996600556077627</v>
       </c>
       <c r="F153">
-        <v>7.975846732061783</v>
+        <v>5.458118360633344</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>9.470891310439198</v>
+        <v>9.142851156148209</v>
       </c>
       <c r="C154">
-        <v>8.802336462562344</v>
+        <v>6.804210052100945</v>
       </c>
       <c r="D154">
-        <v>6.311091263759176</v>
+        <v>8.390732841972904</v>
       </c>
       <c r="E154">
-        <v>10.38158324044642</v>
+        <v>9.065519539925685</v>
       </c>
       <c r="F154">
-        <v>8.026751203484526</v>
+        <v>5.49165131058747</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>9.529445613070031</v>
+        <v>9.211183563009982</v>
       </c>
       <c r="C155">
-        <v>8.851311139344002</v>
+        <v>6.840068979590417</v>
       </c>
       <c r="D155">
-        <v>6.346473670523221</v>
+        <v>8.456796463199755</v>
       </c>
       <c r="E155">
-        <v>10.4357004100749</v>
+        <v>9.134394291102172</v>
       </c>
       <c r="F155">
-        <v>8.077312567593276</v>
+        <v>5.524965667364983</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>9.587621955665783</v>
+        <v>9.279473248133577</v>
       </c>
       <c r="C156">
-        <v>8.900022589618484</v>
+        <v>6.875571372359643</v>
       </c>
       <c r="D156">
-        <v>6.381506043223394</v>
+        <v>8.522723469179081</v>
       </c>
       <c r="E156">
-        <v>10.48927378540499</v>
+        <v>9.203224850796744</v>
       </c>
       <c r="F156">
-        <v>8.127532148455135</v>
+        <v>5.558062861112352</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>9.64542290310049</v>
+        <v>9.347720293093969</v>
       </c>
       <c r="C157">
-        <v>8.94847454489933</v>
+        <v>6.910720255510618</v>
       </c>
       <c r="D157">
-        <v>6.41619173788272</v>
+        <v>8.588514673435196</v>
       </c>
       <c r="E157">
-        <v>10.54230753064762</v>
+        <v>9.272011270864043</v>
       </c>
       <c r="F157">
-        <v>8.177411303971027</v>
+        <v>5.59094431327326</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>9.702851039973005</v>
+        <v>9.415924795040318</v>
       </c>
       <c r="C158">
-        <v>8.996670712855334</v>
+        <v>6.945518645221834</v>
       </c>
       <c r="D158">
-        <v>6.450534100721991</v>
+        <v>8.654170891181627</v>
       </c>
       <c r="E158">
-        <v>10.59480582481084</v>
+        <v>9.340753615956439</v>
       </c>
       <c r="F158">
-        <v>8.226951431291971</v>
+        <v>5.623611436264231</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>9.759908970114877</v>
+        <v>9.484086868814616</v>
       </c>
       <c r="C159">
-        <v>9.044614779664325</v>
+        <v>6.979969542733871</v>
       </c>
       <c r="D159">
-        <v>6.484536462713486</v>
+        <v>8.719692940654218</v>
       </c>
       <c r="E159">
-        <v>10.64677286050412</v>
+        <v>9.409451959904413</v>
       </c>
       <c r="F159">
-        <v>8.27615395778083</v>
+        <v>5.656065633626683</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>9.816599307259995</v>
+        <v>9.55220664288221</v>
       </c>
       <c r="C160">
-        <v>9.092310405313576</v>
+        <v>7.014075937752891</v>
       </c>
       <c r="D160">
-        <v>6.518202141532822</v>
+        <v>8.785081643763691</v>
       </c>
       <c r="E160">
-        <v>10.69821283893013</v>
+        <v>9.478106387443781</v>
       </c>
       <c r="F160">
-        <v>8.325020343490227</v>
+        <v>5.688308300056371</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>9.872924681211288</v>
+        <v>9.620284260999954</v>
       </c>
       <c r="C161">
-        <v>9.139761225817681</v>
+        <v>7.047840808003225</v>
       </c>
       <c r="D161">
-        <v>6.551534441369642</v>
+        <v>8.850337822801633</v>
       </c>
       <c r="E161">
-        <v>10.74912996738471</v>
+        <v>9.546716991354131</v>
       </c>
       <c r="F161">
-        <v>8.373552077299014</v>
+        <v>5.720340821355919</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>9.928887726852013</v>
+        <v>9.688319878842908</v>
       </c>
       <c r="C162">
-        <v>9.186970849152473</v>
+        <v>7.081267113634182</v>
       </c>
       <c r="D162">
-        <v>6.584536643950805</v>
+        <v>8.91546230290994</v>
       </c>
       <c r="E162">
-        <v>10.79952845656059</v>
+        <v>9.615283873543115</v>
       </c>
       <c r="F162">
-        <v>8.421750674592397</v>
+        <v>5.752164574530947</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>9.984491089949888</v>
+        <v>9.756313665264907</v>
       </c>
       <c r="C163">
-        <v>9.233942857281054</v>
+        <v>7.114357803674744</v>
       </c>
       <c r="D163">
-        <v>6.617212019224146</v>
+        <v>8.980455909884807</v>
       </c>
       <c r="E163">
-        <v>10.84941251661237</v>
+        <v>9.683807143360875</v>
       </c>
       <c r="F163">
-        <v>8.469617677716434</v>
+        <v>5.783780927756135</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>10.03973741855359</v>
+        <v>9.824265799744424</v>
       </c>
       <c r="C164">
-        <v>9.280680802735251</v>
+        <v>7.147115809316795</v>
       </c>
       <c r="D164">
-        <v>6.649563816563153</v>
+        <v>9.045319470400676</v>
       </c>
       <c r="E164">
-        <v>10.89878635648859</v>
+        <v>9.752286917417432</v>
       </c>
       <c r="F164">
-        <v>8.517154650522393</v>
+        <v>5.815191240484792</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>10.09462936560263</v>
+        <v>9.892176472827703</v>
       </c>
       <c r="C165">
-        <v>9.327188210366341</v>
+        <v>7.179544046178461</v>
       </c>
       <c r="D165">
-        <v>6.68159526171996</v>
+        <v>9.110053812143706</v>
       </c>
       <c r="E165">
-        <v>10.94765417919961</v>
+        <v>9.820723319392343</v>
       </c>
       <c r="F165">
-        <v>8.564363181490496</v>
+        <v>5.846396863385874</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>10.14916958579993</v>
+        <v>9.960045884849002</v>
       </c>
       <c r="C166">
-        <v>9.373468574544003</v>
+        <v>7.211645414783664</v>
       </c>
       <c r="D166">
-        <v>6.71330956885899</v>
+        <v>9.174659762440399</v>
       </c>
       <c r="E166">
-        <v>10.9960201820705</v>
+        <v>9.889116478698984</v>
       </c>
       <c r="F166">
-        <v>8.611244877616167</v>
+        <v>5.877399138500071</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>10.20336073268484</v>
+        <v>10.02787424526005</v>
       </c>
       <c r="C167">
-        <v>9.419525360661</v>
+        <v>7.243422797083883</v>
       </c>
       <c r="D167">
-        <v>6.744709923682486</v>
+        <v>9.239138149140636</v>
       </c>
       <c r="E167">
-        <v>11.04388855272472</v>
+        <v>9.957466531248549</v>
       </c>
       <c r="F167">
-        <v>8.657801365630068</v>
+        <v>5.908199399169342</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>10.25720546071797</v>
+        <v>10.09566177246944</v>
       </c>
       <c r="C168">
-        <v>9.465362002834681</v>
+        <v>7.27487905885141</v>
       </c>
       <c r="D168">
-        <v>6.775799492458003</v>
+        <v>9.30348979944654</v>
       </c>
       <c r="E168">
-        <v>11.09126346960948</v>
+        <v>10.02577361767007</v>
       </c>
       <c r="F168">
-        <v>8.704034290554397</v>
+        <v>5.938798970153716</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>10.31070641902031</v>
+        <v>10.16340869248962</v>
       </c>
       <c r="C169">
-        <v>9.510981905251343</v>
+        <v>7.306017047703008</v>
       </c>
       <c r="D169">
-        <v>6.806581422270361</v>
+        <v>9.36771553997014</v>
       </c>
       <c r="E169">
-        <v>11.13814909553285</v>
+        <v>10.0940378842774</v>
       </c>
       <c r="F169">
-        <v>8.749945312244758</v>
+        <v>5.969199167651148</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>10.36386625574231</v>
+        <v>10.23111523933429</v>
       </c>
       <c r="C170">
-        <v>9.556388440254619</v>
+        <v>7.336839592758269</v>
       </c>
       <c r="D170">
-        <v>6.837058833888711</v>
+        <v>9.431816197101867</v>
       </c>
       <c r="E170">
-        <v>11.18454958131313</v>
+        <v>10.16225948145361</v>
       </c>
       <c r="F170">
-        <v>8.795536107249509</v>
+        <v>5.999401299323516</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>10.41668761148379</v>
+        <v>10.29878165347261</v>
       </c>
       <c r="C171">
-        <v>9.601584949578537</v>
+        <v>7.36734950564199</v>
       </c>
       <c r="D171">
-        <v>6.867234826408793</v>
+        <v>9.495792595560676</v>
       </c>
       <c r="E171">
-        <v>11.23046906246435</v>
+        <v>10.23043856434427</v>
       </c>
       <c r="F171">
-        <v>8.840808364129705</v>
+        <v>6.029406664372212</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>10.46917312236944</v>
+        <v>10.36640818240805</v>
       </c>
       <c r="C172">
-        <v>9.646574742760997</v>
+        <v>7.397549578044284</v>
       </c>
       <c r="D172">
-        <v>6.897112475558153</v>
+        <v>9.559645559479527</v>
       </c>
       <c r="E172">
-        <v>11.27591165125535</v>
+        <v>10.2985752917919</v>
       </c>
       <c r="F172">
-        <v>8.885763785053904</v>
+        <v>6.059216553549899</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>10.52132541689891</v>
+        <v>10.43399507915845</v>
       </c>
       <c r="C173">
-        <v>9.691361098266405</v>
+        <v>7.427442583534547</v>
       </c>
       <c r="D173">
-        <v>6.926694831504849</v>
+        <v>9.623375911405534</v>
       </c>
       <c r="E173">
-        <v>11.32088144971496</v>
+        <v>10.36666982644604</v>
       </c>
       <c r="F173">
-        <v>8.930404083145673</v>
+        <v>6.088832249231406</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>10.57314711525625</v>
+        <v>10.50154260289922</v>
       </c>
       <c r="C174">
-        <v>9.735947262225844</v>
+        <v>7.457031276594137</v>
       </c>
       <c r="D174">
-        <v>6.955984921946893</v>
+        <v>9.686984472276439</v>
       </c>
       <c r="E174">
-        <v>11.36538253562211</v>
+        <v>10.43472233441788</v>
       </c>
       <c r="F174">
-        <v>8.974730981438316</v>
+        <v>6.118255025437223</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>10.62464082961022</v>
+        <v>10.56905101752644</v>
       </c>
       <c r="C175">
-        <v>9.780336449880448</v>
+        <v>7.486318391432576</v>
       </c>
       <c r="D175">
-        <v>6.984985748543666</v>
+        <v>9.750472061722862</v>
       </c>
       <c r="E175">
-        <v>11.40941896222238</v>
+        <v>10.50273298479923</v>
       </c>
       <c r="F175">
-        <v>9.018746213128386</v>
+        <v>6.147486147901511</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>10.6758091612099</v>
+        <v>10.63652059225804</v>
       </c>
       <c r="C176">
-        <v>9.824531843444639</v>
+        <v>7.515306643992907</v>
       </c>
       <c r="D176">
-        <v>7.013700287422881</v>
+        <v>9.813839497135655</v>
       </c>
       <c r="E176">
-        <v>11.45299477120705</v>
+        <v>10.57070194985464</v>
       </c>
       <c r="F176">
-        <v>9.062451518300053</v>
+        <v>6.176526874095863</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>10.72665470230998</v>
+        <v>10.70395160045653</v>
       </c>
       <c r="C177">
-        <v>9.868536592940117</v>
+        <v>7.543998729365016</v>
       </c>
       <c r="D177">
-        <v>7.042131491907502</v>
+        <v>9.87708759423615</v>
       </c>
       <c r="E177">
-        <v>11.496113972233</v>
+        <v>10.63862940422231</v>
       </c>
       <c r="F177">
-        <v>9.105848645820268</v>
+        <v>6.205378453296069</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>10.77718003260361</v>
+        <v>10.77134431990689</v>
       </c>
       <c r="C178">
-        <v>9.912353819215694</v>
+        <v>7.572397323244305</v>
       </c>
       <c r="D178">
-        <v>7.070282287355099</v>
+        <v>9.940217166530591</v>
       </c>
       <c r="E178">
-        <v>11.53878055372566</v>
+        <v>10.70651552534551</v>
       </c>
       <c r="F178">
-        <v>9.148939349612295</v>
+        <v>6.234042126619026</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>10.82738772131261</v>
+        <v>10.83869903218485</v>
       </c>
       <c r="C179">
-        <v>9.955986607818822</v>
+        <v>7.600505081670129</v>
       </c>
       <c r="D179">
-        <v>7.0981555744501</v>
+        <v>10.00322902522157</v>
       </c>
       <c r="E179">
-        <v>11.58099848364027</v>
+        <v>10.77436049261654</v>
       </c>
       <c r="F179">
-        <v>9.191725389721002</v>
+        <v>6.262519127071133</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>10.87728032450817</v>
+        <v>10.90601602244672</v>
       </c>
       <c r="C180">
-        <v>9.999438012740015</v>
+        <v>7.628324639945191</v>
       </c>
       <c r="D180">
-        <v>7.125754229286152</v>
+        <v>10.06612397943415</v>
       </c>
       <c r="E180">
-        <v>11.62277170010337</v>
+        <v>10.84216448781115</v>
       </c>
       <c r="F180">
-        <v>9.23420853110229</v>
+        <v>6.290810679602879</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>10.92686038570679</v>
+        <v>10.97329557926284</v>
       </c>
       <c r="C181">
-        <v>10.04271106036235</v>
+        <v>7.655858613892668</v>
       </c>
       <c r="D181">
-        <v>7.153081100455606</v>
+        <v>10.12890283553946</v>
       </c>
       <c r="E181">
-        <v>11.66410411718343</v>
+        <v>10.90992769437691</v>
       </c>
       <c r="F181">
-        <v>9.276390541897763</v>
+        <v>6.318918001146532</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>10.97613043539469</v>
+        <v>11.04053799413003</v>
       </c>
       <c r="C182">
-        <v>10.08580874091421</v>
+        <v>7.683109598587772</v>
       </c>
       <c r="D182">
-        <v>7.180139011731528</v>
+        <v>10.19156639761257</v>
       </c>
       <c r="E182">
-        <v>11.70499962386082</v>
+        <v>10.9776502976438</v>
       </c>
       <c r="F182">
-        <v>9.318273194428942</v>
+        <v>6.346842300673623</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>11.02509298966284</v>
+        <v>11.10774356155363</v>
       </c>
       <c r="C183">
-        <v>10.12873401399732</v>
+        <v>7.710080168905688</v>
       </c>
       <c r="D183">
-        <v>7.206930760899512</v>
+        <v>10.25411546702701</v>
       </c>
       <c r="E183">
-        <v>11.74546207948794</v>
+        <v>11.04533248450354</v>
       </c>
       <c r="F183">
-        <v>9.359858262436322</v>
+        <v>6.374584779235777</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>11.07375055126007</v>
+        <v>11.17491257844255</v>
       </c>
       <c r="C184">
-        <v>10.17148981155699</v>
+        <v>7.736772879752823</v>
       </c>
       <c r="D184">
-        <v>7.233459119000839</v>
+        <v>10.31655084235694</v>
       </c>
       <c r="E184">
-        <v>11.78549531759701</v>
+        <v>11.112974443247</v>
       </c>
       <c r="F184">
-        <v>9.401147522234959</v>
+        <v>6.402146630016815</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>11.12210560748531</v>
+        <v>11.24204534431662</v>
       </c>
       <c r="C185">
-        <v>10.21407903085016</v>
+        <v>7.763190265117156</v>
       </c>
       <c r="D185">
-        <v>7.259726832139307</v>
+        <v>10.37887331962875</v>
       </c>
       <c r="E185">
-        <v>11.82510314364485</v>
+        <v>11.18057636357521</v>
       </c>
       <c r="F185">
-        <v>9.44214275090761</v>
+        <v>6.429529038378585</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>11.17016063166513</v>
+        <v>11.30914216066873</v>
       </c>
       <c r="C186">
-        <v>10.25650453916361</v>
+        <v>7.789334839096554</v>
       </c>
       <c r="D186">
-        <v>7.285736619478902</v>
+        <v>10.44108369176361</v>
       </c>
       <c r="E186">
-        <v>11.86428933283121</v>
+        <v>11.24813843623749</v>
       </c>
       <c r="F186">
-        <v>9.482845725971437</v>
+        <v>6.456733181910166</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>11.2179180811474</v>
+        <v>11.37620333122499</v>
       </c>
       <c r="C187">
-        <v>10.29876917497389</v>
+        <v>7.815209095215069</v>
       </c>
       <c r="D187">
-        <v>7.311491174245657</v>
+        <v>10.50318274893236</v>
       </c>
       <c r="E187">
-        <v>11.90305763469583</v>
+        <v>11.31566085320308</v>
       </c>
       <c r="F187">
-        <v>9.523258225405055</v>
+        <v>6.483760230474852</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>11.26538039825406</v>
+        <v>11.44322916132873</v>
       </c>
       <c r="C188">
-        <v>10.34087574469656</v>
+        <v>7.840815506500827</v>
       </c>
       <c r="D188">
-        <v>7.336993164383173</v>
+        <v>10.56517127829464</v>
       </c>
       <c r="E188">
-        <v>11.94141176776197</v>
+        <v>11.38314380722865</v>
       </c>
       <c r="F188">
-        <v>9.563382025824669</v>
+        <v>6.510611346258139</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>11.31255000951564</v>
+        <v>11.51021995838259</v>
       </c>
       <c r="C189">
-        <v>10.38282702499762</v>
+        <v>7.866156526104525</v>
       </c>
       <c r="D189">
-        <v>7.362245230928825</v>
+        <v>10.62705006390142</v>
       </c>
       <c r="E189">
-        <v>11.97935542068232</v>
+        <v>11.45058749208105</v>
       </c>
       <c r="F189">
-        <v>9.603218903598401</v>
+        <v>6.537287683815957</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>11.359429325292</v>
+        <v>11.57717603090821</v>
       </c>
       <c r="C190">
-        <v>10.42462576329837</v>
+        <v>7.891234586391916</v>
       </c>
       <c r="D190">
-        <v>7.387249989433235</v>
+        <v>10.68881988687759</v>
       </c>
       <c r="E190">
-        <v>12.01689225605786</v>
+        <v>11.51799210213001</v>
       </c>
       <c r="F190">
-        <v>9.642770632681902</v>
+        <v>6.563790390122567</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>11.40602074019163</v>
+        <v>11.64409768870229</v>
       </c>
       <c r="C191">
-        <v>10.4662746767685</v>
+        <v>7.91605209975499</v>
       </c>
       <c r="D191">
-        <v>7.412010029902407</v>
+        <v>10.7504815250515</v>
       </c>
       <c r="E191">
-        <v>12.05402590368403</v>
+        <v>11.58535783249953</v>
       </c>
       <c r="F191">
-        <v>9.6820389853417</v>
+        <v>6.590120604617724</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>11.45232663197207</v>
+        <v>11.71098524338844</v>
       </c>
       <c r="C192">
-        <v>10.50777645322545</v>
+        <v>7.940611458395697</v>
       </c>
       <c r="D192">
-        <v>7.436527915901676</v>
+        <v>10.81203575318692</v>
       </c>
       <c r="E192">
-        <v>12.09075996450692</v>
+        <v>11.65268487883386</v>
       </c>
       <c r="F192">
-        <v>9.721025731348698</v>
+        <v>6.616279459254862</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>11.49834936245735</v>
+        <v>11.77783900729406</v>
       </c>
       <c r="C193">
-        <v>10.54913375207117</v>
+        <v>7.964915034152326</v>
       </c>
       <c r="D193">
-        <v>7.460806185947845</v>
+        <v>10.87348334282153</v>
       </c>
       <c r="E193">
-        <v>12.12709801075084</v>
+        <v>11.71997343726261</v>
       </c>
       <c r="F193">
-        <v>9.759732637133187</v>
+        <v>6.642268078543153</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>11.54409127631227</v>
+        <v>11.84465929324287</v>
       </c>
       <c r="C194">
-        <v>10.59034920324819</v>
+        <v>7.988965179122932</v>
       </c>
       <c r="D194">
-        <v>7.484847352771441</v>
+        <v>10.93482506218227</v>
       </c>
       <c r="E194">
-        <v>12.1630435830781</v>
+        <v>11.78722370435641</v>
       </c>
       <c r="F194">
-        <v>9.798161466322904</v>
+        <v>6.668087579605891</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>11.58955470182805</v>
+        <v>11.91144641550004</v>
       </c>
       <c r="C195">
-        <v>10.63142540814649</v>
+        <v>8.012764225082904</v>
       </c>
       <c r="D195">
-        <v>7.508653903410533</v>
+        <v>10.99606167634638</v>
       </c>
       <c r="E195">
-        <v>12.19860019259155</v>
+        <v>11.85443587698717</v>
       </c>
       <c r="F195">
-        <v>9.836313978163378</v>
+        <v>6.693739072220921</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>11.63474195024965</v>
+        <v>11.978200689501</v>
       </c>
       <c r="C196">
-        <v>10.6723649404454</v>
+        <v>8.036314484007285</v>
       </c>
       <c r="D196">
-        <v>7.532228300170907</v>
+        <v>11.05719394695415</v>
       </c>
       <c r="E196">
-        <v>12.23377132043131</v>
+        <v>11.92161015241245</v>
       </c>
       <c r="F196">
-        <v>9.874191928310969</v>
+        <v>6.719223658859671</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>11.6796553160439</v>
+        <v>12.04492243017679</v>
       </c>
       <c r="C197">
-        <v>10.71317034538395</v>
+        <v>8.059618248107205</v>
       </c>
       <c r="D197">
-        <v>7.555572979606466</v>
+        <v>11.11822263239444</v>
       </c>
       <c r="E197">
-        <v>12.26856041659756</v>
+        <v>11.98874672789891</v>
       </c>
       <c r="F197">
-        <v>9.911797067649042</v>
+        <v>6.744542434744693</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>11.7242970768705</v>
+        <v>12.11161195345137</v>
       </c>
       <c r="C198">
-        <v>10.75384414047796</v>
+        <v>8.082677789628814</v>
       </c>
       <c r="D198">
-        <v>7.578690353375783</v>
+        <v>11.17914848770035</v>
       </c>
       <c r="E198">
-        <v>12.30297090178527</v>
+        <v>12.05584580080307</v>
       </c>
       <c r="F198">
-        <v>9.949131142300585</v>
+        <v>6.769696487900442</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>11.76866949265015</v>
+        <v>12.17826957664942</v>
       </c>
       <c r="C199">
-        <v>10.79438881639308</v>
+        <v>8.105495361407673</v>
       </c>
       <c r="D199">
-        <v>7.601582808486577</v>
+        <v>11.23997226447578</v>
       </c>
       <c r="E199">
-        <v>12.33700616622947</v>
+        <v>12.12290756908486</v>
       </c>
       <c r="F199">
-        <v>9.986195893557522</v>
+        <v>6.794686899187065</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>11.8127748061308</v>
+        <v>12.24489561623991</v>
       </c>
       <c r="C200">
-        <v>10.83480683635601</v>
+        <v>8.128073196517255</v>
       </c>
       <c r="D200">
-        <v>7.624252706798453</v>
+        <v>11.30069471102763</v>
       </c>
       <c r="E200">
-        <v>12.37066956910805</v>
+        <v>12.18993223010114</v>
       </c>
       <c r="F200">
-        <v>10.02299305691267</v>
+        <v>6.819514742337068</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>11.85661524469515</v>
+        <v>12.31149038929077</v>
       </c>
       <c r="C201">
-        <v>10.87510063678408</v>
+        <v>8.150413508617607</v>
       </c>
       <c r="D201">
-        <v>7.646702385788983</v>
+        <v>11.36131657216298</v>
       </c>
       <c r="E201">
-        <v>12.40396444103033</v>
+        <v>12.25691998123388</v>
       </c>
       <c r="F201">
-        <v>10.05952436272046</v>
+        <v>6.844181084037496</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>11.90019301610564</v>
+        <v>12.37805421379922</v>
       </c>
       <c r="C202">
-        <v>10.91527262779679</v>
+        <v>8.172518492138082</v>
       </c>
       <c r="D202">
-        <v>7.668934158534042</v>
+        <v>11.4218385893195</v>
       </c>
       <c r="E202">
-        <v>12.43689408138311</v>
+        <v>12.32387102012682</v>
       </c>
       <c r="F202">
-        <v>10.09579153496194</v>
+        <v>6.868686983949705</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>11.94351031120233</v>
+        <v>12.44458740715014</v>
       </c>
       <c r="C203">
-        <v>10.95532519323668</v>
+        <v>8.194390322093721</v>
       </c>
       <c r="D203">
-        <v>7.690950313605394</v>
+        <v>11.48226150050543</v>
       </c>
       <c r="E203">
-        <v>12.46946175956381</v>
+        <v>12.39078554435531</v>
       </c>
       <c r="F203">
-        <v>10.13179629201761</v>
+        <v>6.893033494735205</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>11.98656930525792</v>
+        <v>12.51109028698815</v>
       </c>
       <c r="C204">
-        <v>10.99526069103863</v>
+        <v>8.216031154523947</v>
       </c>
       <c r="D204">
-        <v>7.712753115767149</v>
+        <v>11.5425860402436</v>
       </c>
       <c r="E204">
-        <v>12.50167071593788</v>
+        <v>12.45766375083579</v>
       </c>
       <c r="F204">
-        <v>10.16754034576071</v>
+        <v>6.917221662146787</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>12.02937215596075</v>
+        <v>12.57756317119751</v>
       </c>
       <c r="C205">
-        <v>11.03508145358657</v>
+        <v>8.237443126404152</v>
       </c>
       <c r="D205">
-        <v>7.734344805666034</v>
+        <v>11.60281293967429</v>
       </c>
       <c r="E205">
-        <v>12.53352416015956</v>
+        <v>12.52450583647456</v>
       </c>
       <c r="F205">
-        <v>10.20302540093999</v>
+        <v>6.94125252505</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>12.07192100229022</v>
+        <v>12.64400637747454</v>
       </c>
       <c r="C206">
-        <v>11.07478978795072</v>
+        <v>8.258628355796169</v>
       </c>
       <c r="D206">
-        <v>7.755727600184222</v>
+        <v>11.66294292641394</v>
       </c>
       <c r="E206">
-        <v>12.56502527244848</v>
+        <v>12.59131199848678</v>
       </c>
       <c r="F206">
-        <v>10.23825315545242</v>
+        <v>6.965127115458033</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>12.11421796681334</v>
+        <v>12.71042022328079</v>
       </c>
       <c r="C207">
-        <v>11.11438797619296</v>
+        <v>8.279588942117044</v>
       </c>
       <c r="D207">
-        <v>7.776903692866422</v>
+        <v>11.72297672465116</v>
       </c>
       <c r="E207">
-        <v>12.59617720378556</v>
+        <v>12.6580824331255</v>
       </c>
       <c r="F207">
-        <v>10.27322530228863</v>
+        <v>6.9888464585814</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>12.15626515696497</v>
+        <v>12.7768050260727</v>
       </c>
       <c r="C208">
-        <v>11.1538782756437</v>
+        <v>8.300326966033969</v>
       </c>
       <c r="D208">
-        <v>7.797875253649819</v>
+        <v>11.78291505511403</v>
       </c>
       <c r="E208">
-        <v>12.62698307514814</v>
+        <v>12.72481733651736</v>
       </c>
       <c r="F208">
-        <v>10.30794352446292</v>
+        <v>7.012411572896008</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>12.19806466059177</v>
+        <v>12.84316110317409</v>
       </c>
       <c r="C209">
-        <v>11.19326291922298</v>
+        <v>8.320844489785417</v>
       </c>
       <c r="D209">
-        <v>7.818644429380833</v>
+        <v>11.84275863503104</v>
       </c>
       <c r="E209">
-        <v>12.65744597851302</v>
+        <v>12.7915169047082</v>
       </c>
       <c r="F209">
-        <v>10.34240949806519</v>
+        <v>7.035823470162911</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>12.23961854922595</v>
+        <v>12.90948877136092</v>
       </c>
       <c r="C210">
-        <v>11.23254411573035</v>
+        <v>8.341143557240667</v>
       </c>
       <c r="D210">
-        <v>7.839213344001763</v>
+        <v>11.90250817825108</v>
       </c>
       <c r="E210">
-        <v>12.68756897684356</v>
+        <v>12.85818133320444</v>
       </c>
       <c r="F210">
-        <v>10.37662489293064</v>
+        <v>7.059083155452141</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>12.28092887832564</v>
+        <v>12.97578834720911</v>
       </c>
       <c r="C211">
-        <v>11.27172405009434</v>
+        <v>8.361226193987086</v>
       </c>
       <c r="D211">
-        <v>7.859584098517296</v>
+        <v>11.96216439504854</v>
       </c>
       <c r="E211">
-        <v>12.71735510365605</v>
+        <v>12.9248108170549</v>
       </c>
       <c r="F211">
-        <v>10.41059137222935</v>
+        <v>7.082191627243859</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>12.32199768595218</v>
+        <v>13.04206014723139</v>
       </c>
       <c r="C212">
-        <v>11.31080488370563</v>
+        <v>8.381094407673512</v>
       </c>
       <c r="D212">
-        <v>7.879758771439334</v>
+        <v>12.02172799222529</v>
       </c>
       <c r="E212">
-        <v>12.74680736413834</v>
+        <v>12.99140555096242</v>
       </c>
       <c r="F212">
-        <v>10.44431058855986</v>
+        <v>7.105149877433129</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>12.36282699306288</v>
+        <v>13.1083044871323</v>
       </c>
       <c r="C213">
-        <v>11.3497887547093</v>
+        <v>8.400750187803629</v>
       </c>
       <c r="D213">
-        <v>7.899739418864934</v>
+        <v>12.08119967314072</v>
       </c>
       <c r="E213">
-        <v>12.77592873468627</v>
+        <v>13.05796572925362</v>
       </c>
       <c r="F213">
-        <v>10.47778418733006</v>
+        <v>7.127958891359485</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>12.40341880407211</v>
+        <v>13.17452168226493</v>
       </c>
       <c r="C214">
-        <v>11.38867777817918</v>
+        <v>8.420195506058379</v>
       </c>
       <c r="D214">
-        <v>7.919528074632076</v>
+        <v>12.14058013785824</v>
       </c>
       <c r="E214">
-        <v>12.80472216300777</v>
+        <v>13.1244915456276</v>
       </c>
       <c r="F214">
-        <v>10.51101380869164</v>
+        <v>7.15061964788096</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>12.44377510693368</v>
+        <v>13.24071204786122</v>
       </c>
       <c r="C215">
-        <v>11.42747404650926</v>
+        <v>8.439432316439737</v>
       </c>
       <c r="D215">
-        <v>7.939126750689143</v>
+        <v>12.19987008268741</v>
       </c>
       <c r="E215">
-        <v>12.83319056910577</v>
+        <v>13.19098319330793</v>
       </c>
       <c r="F215">
-        <v>10.54400108219032</v>
+        <v>7.173133119414691</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>12.48389787253571</v>
+        <v>13.30687589826121</v>
       </c>
       <c r="C216">
-        <v>11.46617962971797</v>
+        <v>8.458462555644093</v>
       </c>
       <c r="D216">
-        <v>7.958537437094868</v>
+        <v>12.25907020053082</v>
       </c>
       <c r="E216">
-        <v>12.86133684448874</v>
+        <v>13.25744086518421</v>
       </c>
       <c r="F216">
-        <v>10.57674762935031</v>
+        <v>7.195500271959419</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>12.52378905525951</v>
+        <v>13.37301354735249</v>
       </c>
       <c r="C217">
-        <v>11.5047965755255</v>
+        <v>8.477288142544046</v>
       </c>
       <c r="D217">
-        <v>7.977762102337808</v>
+        <v>12.31818118094417</v>
       </c>
       <c r="E217">
-        <v>12.88916385290278</v>
+        <v>13.32386475337932</v>
       </c>
       <c r="F217">
-        <v>10.60925506387676</v>
+        <v>7.217722065131053</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>12.56345059376138</v>
+        <v>13.43912530860372</v>
       </c>
       <c r="C218">
-        <v>11.54332690978325</v>
+        <v>8.495910978805437</v>
       </c>
       <c r="D218">
-        <v>7.996802693564505</v>
+        <v>12.37720371016104</v>
       </c>
       <c r="E218">
-        <v>12.91667443073005</v>
+        <v>13.39025504949518</v>
       </c>
       <c r="F218">
-        <v>10.6415249922825</v>
+        <v>7.239799452249181</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>12.60288440966652</v>
+        <v>13.50521149479448</v>
       </c>
       <c r="C219">
-        <v>11.58177263680552</v>
+        <v>8.514332949098526</v>
       </c>
       <c r="D219">
-        <v>8.015661136674925</v>
+        <v>12.43613847065421</v>
       </c>
       <c r="E219">
-        <v>12.94387138662119</v>
+        <v>13.45661194464978</v>
       </c>
       <c r="F219">
-        <v>10.67355901100492</v>
+        <v>7.26173338034508</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>12.64209240832688</v>
+        <v>13.57127241801305</v>
       </c>
       <c r="C220">
-        <v>11.6201357393743</v>
+        <v>8.532555921474223</v>
       </c>
       <c r="D220">
-        <v>8.034339336614563</v>
+        <v>12.49498614154472</v>
       </c>
       <c r="E220">
-        <v>12.97075750212977</v>
+        <v>13.52293562935807</v>
       </c>
       <c r="F220">
-        <v>10.70535870845044</v>
+        <v>7.283524790176074</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>12.68107647915124</v>
+        <v>13.63730838977205</v>
       </c>
       <c r="C221">
-        <v>11.65841817916958</v>
+        <v>8.550581746502816</v>
       </c>
       <c r="D221">
-        <v>8.052839177562836</v>
+        <v>12.55374739867047</v>
       </c>
       <c r="E221">
-        <v>12.99733553194361</v>
+        <v>13.58922629340918</v>
       </c>
       <c r="F221">
-        <v>10.73692566510029</v>
+        <v>7.305174616334281</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>12.71983849572279</v>
+        <v>13.70331972093516</v>
       </c>
       <c r="C222">
-        <v>11.69662189713079</v>
+        <v>8.568412258251703</v>
       </c>
       <c r="D222">
-        <v>8.071162523099641</v>
+        <v>12.61242291443797</v>
       </c>
       <c r="E222">
-        <v>13.02360820378302</v>
+        <v>13.65548412601508</v>
       </c>
       <c r="F222">
-        <v>10.76826145260931</v>
+        <v>7.326683787245124</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>12.75838031514051</v>
+        <v>13.76930672154462</v>
       </c>
       <c r="C223">
-        <v>11.73474881342507</v>
+        <v>8.586049274359503</v>
       </c>
       <c r="D223">
-        <v>8.089311216454238</v>
+        <v>12.67101335767735</v>
       </c>
       <c r="E223">
-        <v>13.04957821895811</v>
+        <v>13.72170931587531</v>
       </c>
       <c r="F223">
-        <v>10.79936763350295</v>
+        <v>7.348053225200206</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>12.79670377875331</v>
+        <v>13.83526970095719</v>
       </c>
       <c r="C224">
-        <v>11.77280082785177</v>
+        <v>8.603494596168307</v>
       </c>
       <c r="D224">
-        <v>8.107287080684603</v>
+        <v>12.72951939386923</v>
       </c>
       <c r="E224">
-        <v>13.07524825249567</v>
+        <v>13.78790205085861</v>
       </c>
       <c r="F224">
-        <v>10.83024576174611</v>
+        <v>7.369283846410483</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>12.83481071273915</v>
+        <v>13.90120896787403</v>
       </c>
       <c r="C225">
-        <v>11.81077982022405</v>
+        <v>8.620750008479627</v>
       </c>
       <c r="D225">
-        <v>8.125091918884433</v>
+        <v>12.7879416851878</v>
       </c>
       <c r="E225">
-        <v>13.10062095320833</v>
+        <v>13.85406251820549</v>
       </c>
       <c r="F225">
-        <v>10.86089738347363</v>
+        <v>7.390376561066422</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>12.87270292698931</v>
+        <v>13.96712483007344</v>
       </c>
       <c r="C226">
-        <v>11.84868765031378</v>
+        <v>8.637817280076188</v>
       </c>
       <c r="D226">
-        <v>8.142727514386371</v>
+        <v>12.84628089035454</v>
       </c>
       <c r="E226">
-        <v>13.12569894422532</v>
+        <v>13.92019090455843</v>
       </c>
       <c r="F226">
-        <v>10.89132403489219</v>
+        <v>7.41133227335089</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>12.91038221602738</v>
+        <v>14.03301759456371</v>
       </c>
       <c r="C227">
-        <v>11.88652615822648</v>
+        <v>8.654698163782225</v>
       </c>
       <c r="D227">
-        <v>8.160195630971156</v>
+        <v>12.90453766468062</v>
       </c>
       <c r="E227">
-        <v>13.15048482299303</v>
+        <v>13.9862873957962</v>
       </c>
       <c r="F227">
-        <v>10.92152724364392</v>
+        <v>7.432151881461833</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>12.94785035903449</v>
+        <v>14.09888756767531</v>
       </c>
       <c r="C228">
-        <v>11.92429716480718</v>
+        <v>8.671394396587177</v>
       </c>
       <c r="D228">
-        <v>8.177498013060774</v>
+        <v>12.96271266011739</v>
       </c>
       <c r="E228">
-        <v>13.17498116154018</v>
+        <v>14.0523521770782</v>
       </c>
       <c r="F228">
-        <v>10.95150852898219</v>
+        <v>7.452836277709647</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>12.98510911990141</v>
+        <v>14.16473505474474</v>
       </c>
       <c r="C229">
-        <v>11.96200247155068</v>
+        <v>8.687907699764644</v>
       </c>
       <c r="D229">
-        <v>8.194636385911828</v>
+        <v>13.02080652529774</v>
       </c>
       <c r="E229">
-        <v>13.19919050690696</v>
+        <v>14.11838543287486</v>
       </c>
       <c r="F229">
-        <v>10.98126940176087</v>
+        <v>7.473386348516279</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>13.02216024716011</v>
+        <v>14.23056036028678</v>
       </c>
       <c r="C230">
-        <v>11.99964386094835</v>
+        <v>8.704239779049313</v>
       </c>
       <c r="D230">
-        <v>8.211612455844374</v>
+        <v>13.07881990544691</v>
       </c>
       <c r="E230">
-        <v>13.2231153811129</v>
+        <v>14.1843873469542</v>
       </c>
       <c r="F230">
-        <v>11.01081136297488</v>
+        <v>7.493802974436456</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>13.05900547428741</v>
+        <v>14.29636378802421</v>
       </c>
       <c r="C231">
-        <v>12.03722309692641</v>
+        <v>8.720392324602972</v>
       </c>
       <c r="D231">
-        <v>8.228427910404957</v>
+        <v>13.13675344244903</v>
       </c>
       <c r="E231">
-        <v>13.24675828155953</v>
+        <v>14.25035810228386</v>
       </c>
       <c r="F231">
-        <v>11.04013590505426</v>
+        <v>7.514087030239293</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>13.0956465199231</v>
+        <v>14.36214564074346</v>
       </c>
       <c r="C232">
-        <v>12.07474192471504</v>
+        <v>8.736367011362503</v>
       </c>
       <c r="D232">
-        <v>8.245084418581877</v>
+        <v>13.19460777484829</v>
       </c>
       <c r="E232">
-        <v>13.27012168129615</v>
+        <v>14.31629788109493</v>
       </c>
       <c r="F232">
-        <v>11.0692445124081</v>
+        <v>7.534239384932838</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>13.1320850876433</v>
+        <v>14.42790622029985</v>
       </c>
       <c r="C233">
-        <v>12.11220207116487</v>
+        <v>8.752165499182549</v>
       </c>
       <c r="D233">
-        <v>8.261583631022672</v>
+        <v>13.25238353786742</v>
       </c>
       <c r="E233">
-        <v>13.29320802913271</v>
+        <v>14.38220686492698</v>
       </c>
       <c r="F233">
-        <v>11.0981386598853</v>
+        <v>7.554260901785423</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>13.16832286630307</v>
+        <v>14.49364582767375</v>
       </c>
       <c r="C234">
-        <v>12.14960524521798</v>
+        <v>8.767789432866122</v>
       </c>
       <c r="D234">
-        <v>8.277927180169268</v>
+        <v>13.31008136338818</v>
       </c>
       <c r="E234">
-        <v>13.31601974998033</v>
+        <v>14.44808523447048</v>
       </c>
       <c r="F234">
-        <v>11.1268198134854</v>
+        <v>7.574152438362666</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>13.20436153016592</v>
+        <v>14.5593647629295</v>
       </c>
       <c r="C235">
-        <v>12.18695313774425</v>
+        <v>8.783240442457323</v>
       </c>
       <c r="D235">
-        <v>8.29411668052629</v>
+        <v>13.36770187997942</v>
       </c>
       <c r="E235">
-        <v>13.33855924508695</v>
+        <v>14.51393316965557</v>
       </c>
       <c r="F235">
-        <v>11.15528943054466</v>
+        <v>7.593914846602958</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>13.24020273894013</v>
+        <v>14.62506332512902</v>
       </c>
       <c r="C236">
-        <v>12.22424742182408</v>
+        <v>8.79852014320535</v>
       </c>
       <c r="D236">
-        <v>8.310153728819223</v>
+        <v>13.42524571291109</v>
       </c>
       <c r="E236">
-        <v>13.36082889222333</v>
+        <v>14.57975084966268</v>
       </c>
       <c r="F236">
-        <v>11.18354896009479</v>
+        <v>7.613548972823184</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>13.2758481378571</v>
+        <v>14.69074181239755</v>
       </c>
       <c r="C237">
-        <v>12.26148975324118</v>
+        <v>8.813630135780029</v>
       </c>
       <c r="D237">
-        <v>8.326039904146789</v>
+        <v>13.48271348419694</v>
       </c>
       <c r="E237">
-        <v>13.38283104598592</v>
+        <v>14.64553845287132</v>
       </c>
       <c r="F237">
-        <v>11.21159984165263</v>
+        <v>7.633055657731068</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>13.31129935786928</v>
+        <v>14.75640052192741</v>
       </c>
       <c r="C238">
-        <v>12.29868177030073</v>
+        <v>8.828572006432534</v>
       </c>
       <c r="D238">
-        <v>8.341776768263751</v>
+        <v>13.54010581251023</v>
       </c>
       <c r="E238">
-        <v>13.40456803801729</v>
+        <v>14.71129615682933</v>
       </c>
       <c r="F238">
-        <v>11.23944350614213</v>
+        <v>7.652435736528501</v>
       </c>
     </row>
   </sheetData>
